--- a/Deliverables/1-Timeline/Sandipan-Timeplan.xlsx
+++ b/Deliverables/1-Timeline/Sandipan-Timeplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandipan\Desktop\KTH\Masters Thesis\Deliverables\1-Timeline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandipan\Desktop\KTH\Master_Thesis\Deliverables\1-Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -868,39 +868,6 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -919,6 +886,24 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -936,6 +921,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3077,10 +3077,10 @@
   <dimension ref="A1:IV54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="11" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="11" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" sqref="A1:N2"/>
+      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -3106,38 +3106,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="15.75" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
     </row>
     <row r="2" spans="1:256" s="10" customFormat="1" ht="23.25" customHeight="1" collapsed="1">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
       <c r="O2" s="48">
         <v>0</v>
       </c>
@@ -3155,8 +3155,8 @@
       </c>
     </row>
     <row r="4" spans="1:256" s="7" customFormat="1" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="94"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
@@ -3183,23 +3183,23 @@
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="97">
+      <c r="F5" s="86">
         <v>42387</v>
       </c>
-      <c r="G5" s="97"/>
+      <c r="G5" s="86"/>
       <c r="H5" s="5" t="str">
         <f>TEXT(F5,"dddd")</f>
         <v>Monday</v>
       </c>
       <c r="I5" s="51"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="95" t="s">
+      <c r="K5" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="95" t="s">
+      <c r="L5" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="95" t="s">
+      <c r="M5" s="84" t="s">
         <v>13</v>
       </c>
       <c r="N5" s="11"/>
@@ -3214,20 +3214,20 @@
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="97">
+      <c r="F6" s="86">
         <f ca="1">TODAY()</f>
-        <v>42389</v>
-      </c>
-      <c r="G6" s="97"/>
+        <v>42390</v>
+      </c>
+      <c r="G6" s="86"/>
       <c r="H6" s="5" t="str">
         <f ca="1">TEXT(F6,"dddd")</f>
-        <v>Wednesday</v>
+        <v>Thursday</v>
       </c>
       <c r="I6" s="51"/>
       <c r="J6" s="43"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="44"/>
       <c r="O6" s="47"/>
       <c r="P6" s="41">
@@ -4190,9 +4190,9 @@
       </c>
       <c r="I7" s="49"/>
       <c r="J7" s="45"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
       <c r="N7" s="46"/>
       <c r="P7" s="14">
         <f t="shared" ref="P7:CA7" si="4">TRUNC((P6-DATE(YEAR(P6),1,1)+WEEKDAY(DATE(YEAR(P6),1,1))-1)/7)+1</f>
@@ -5152,9 +5152,9 @@
       <c r="F8" s="4"/>
       <c r="I8" s="49"/>
       <c r="J8" s="45"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
       <c r="N8" s="46"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
@@ -5398,732 +5398,732 @@
     </row>
     <row r="9" spans="1:256" s="9" customFormat="1" ht="29.25" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="100" t="s">
+      <c r="I9" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="95" t="s">
+      <c r="J9" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95" t="s">
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84" t="s">
         <v>8</v>
       </c>
       <c r="O9" s="42"/>
-      <c r="P9" s="85">
+      <c r="P9" s="99">
         <f>P6</f>
         <v>42386</v>
       </c>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="85">
+      <c r="Q9" s="100"/>
+      <c r="R9" s="100"/>
+      <c r="S9" s="100"/>
+      <c r="T9" s="100"/>
+      <c r="U9" s="100"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="99">
         <f>W6</f>
         <v>42393</v>
       </c>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="87"/>
-      <c r="AD9" s="85">
+      <c r="X9" s="100"/>
+      <c r="Y9" s="100"/>
+      <c r="Z9" s="100"/>
+      <c r="AA9" s="100"/>
+      <c r="AB9" s="100"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="99">
         <f>AD6</f>
         <v>42400</v>
       </c>
-      <c r="AE9" s="86"/>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="86"/>
-      <c r="AJ9" s="87"/>
-      <c r="AK9" s="85">
+      <c r="AE9" s="100"/>
+      <c r="AF9" s="100"/>
+      <c r="AG9" s="100"/>
+      <c r="AH9" s="100"/>
+      <c r="AI9" s="100"/>
+      <c r="AJ9" s="101"/>
+      <c r="AK9" s="99">
         <f>AK6</f>
         <v>42407</v>
       </c>
-      <c r="AL9" s="86"/>
-      <c r="AM9" s="86"/>
-      <c r="AN9" s="86"/>
-      <c r="AO9" s="86"/>
-      <c r="AP9" s="86"/>
-      <c r="AQ9" s="87"/>
-      <c r="AR9" s="85">
+      <c r="AL9" s="100"/>
+      <c r="AM9" s="100"/>
+      <c r="AN9" s="100"/>
+      <c r="AO9" s="100"/>
+      <c r="AP9" s="100"/>
+      <c r="AQ9" s="101"/>
+      <c r="AR9" s="99">
         <f>AR6</f>
         <v>42414</v>
       </c>
-      <c r="AS9" s="86"/>
-      <c r="AT9" s="86"/>
-      <c r="AU9" s="86"/>
-      <c r="AV9" s="86"/>
-      <c r="AW9" s="86"/>
-      <c r="AX9" s="87"/>
-      <c r="AY9" s="85">
+      <c r="AS9" s="100"/>
+      <c r="AT9" s="100"/>
+      <c r="AU9" s="100"/>
+      <c r="AV9" s="100"/>
+      <c r="AW9" s="100"/>
+      <c r="AX9" s="101"/>
+      <c r="AY9" s="99">
         <f>AY6</f>
         <v>42421</v>
       </c>
-      <c r="AZ9" s="86"/>
-      <c r="BA9" s="86"/>
-      <c r="BB9" s="86"/>
-      <c r="BC9" s="86"/>
-      <c r="BD9" s="86"/>
-      <c r="BE9" s="87"/>
-      <c r="BF9" s="85">
+      <c r="AZ9" s="100"/>
+      <c r="BA9" s="100"/>
+      <c r="BB9" s="100"/>
+      <c r="BC9" s="100"/>
+      <c r="BD9" s="100"/>
+      <c r="BE9" s="101"/>
+      <c r="BF9" s="99">
         <f>BF6</f>
         <v>42428</v>
       </c>
-      <c r="BG9" s="86"/>
-      <c r="BH9" s="86"/>
-      <c r="BI9" s="86"/>
-      <c r="BJ9" s="86"/>
-      <c r="BK9" s="86"/>
-      <c r="BL9" s="87"/>
-      <c r="BM9" s="85">
+      <c r="BG9" s="100"/>
+      <c r="BH9" s="100"/>
+      <c r="BI9" s="100"/>
+      <c r="BJ9" s="100"/>
+      <c r="BK9" s="100"/>
+      <c r="BL9" s="101"/>
+      <c r="BM9" s="99">
         <f>BM6</f>
         <v>42435</v>
       </c>
-      <c r="BN9" s="86"/>
-      <c r="BO9" s="86"/>
-      <c r="BP9" s="86"/>
-      <c r="BQ9" s="86"/>
-      <c r="BR9" s="86"/>
-      <c r="BS9" s="87"/>
-      <c r="BT9" s="85">
+      <c r="BN9" s="100"/>
+      <c r="BO9" s="100"/>
+      <c r="BP9" s="100"/>
+      <c r="BQ9" s="100"/>
+      <c r="BR9" s="100"/>
+      <c r="BS9" s="101"/>
+      <c r="BT9" s="99">
         <f>BT6</f>
         <v>42442</v>
       </c>
-      <c r="BU9" s="86"/>
-      <c r="BV9" s="86"/>
-      <c r="BW9" s="86"/>
-      <c r="BX9" s="86"/>
-      <c r="BY9" s="86"/>
-      <c r="BZ9" s="87"/>
-      <c r="CA9" s="85">
+      <c r="BU9" s="100"/>
+      <c r="BV9" s="100"/>
+      <c r="BW9" s="100"/>
+      <c r="BX9" s="100"/>
+      <c r="BY9" s="100"/>
+      <c r="BZ9" s="101"/>
+      <c r="CA9" s="99">
         <f>CA6</f>
         <v>42449</v>
       </c>
-      <c r="CB9" s="86"/>
-      <c r="CC9" s="86"/>
-      <c r="CD9" s="86"/>
-      <c r="CE9" s="86"/>
-      <c r="CF9" s="86"/>
-      <c r="CG9" s="87"/>
-      <c r="CH9" s="85">
+      <c r="CB9" s="100"/>
+      <c r="CC9" s="100"/>
+      <c r="CD9" s="100"/>
+      <c r="CE9" s="100"/>
+      <c r="CF9" s="100"/>
+      <c r="CG9" s="101"/>
+      <c r="CH9" s="99">
         <f>CH6</f>
         <v>42456</v>
       </c>
-      <c r="CI9" s="86"/>
-      <c r="CJ9" s="86"/>
-      <c r="CK9" s="86"/>
-      <c r="CL9" s="86"/>
-      <c r="CM9" s="86"/>
-      <c r="CN9" s="87"/>
-      <c r="CO9" s="85">
+      <c r="CI9" s="100"/>
+      <c r="CJ9" s="100"/>
+      <c r="CK9" s="100"/>
+      <c r="CL9" s="100"/>
+      <c r="CM9" s="100"/>
+      <c r="CN9" s="101"/>
+      <c r="CO9" s="99">
         <f>CO6</f>
         <v>42463</v>
       </c>
-      <c r="CP9" s="86"/>
-      <c r="CQ9" s="86"/>
-      <c r="CR9" s="86"/>
-      <c r="CS9" s="86"/>
-      <c r="CT9" s="86"/>
-      <c r="CU9" s="87"/>
-      <c r="CV9" s="85">
+      <c r="CP9" s="100"/>
+      <c r="CQ9" s="100"/>
+      <c r="CR9" s="100"/>
+      <c r="CS9" s="100"/>
+      <c r="CT9" s="100"/>
+      <c r="CU9" s="101"/>
+      <c r="CV9" s="99">
         <f>CV6</f>
         <v>42470</v>
       </c>
-      <c r="CW9" s="86"/>
-      <c r="CX9" s="86"/>
-      <c r="CY9" s="86"/>
-      <c r="CZ9" s="86"/>
-      <c r="DA9" s="86"/>
-      <c r="DB9" s="87"/>
-      <c r="DC9" s="85">
+      <c r="CW9" s="100"/>
+      <c r="CX9" s="100"/>
+      <c r="CY9" s="100"/>
+      <c r="CZ9" s="100"/>
+      <c r="DA9" s="100"/>
+      <c r="DB9" s="101"/>
+      <c r="DC9" s="99">
         <f>DC6</f>
         <v>42477</v>
       </c>
-      <c r="DD9" s="86"/>
-      <c r="DE9" s="86"/>
-      <c r="DF9" s="86"/>
-      <c r="DG9" s="86"/>
-      <c r="DH9" s="86"/>
-      <c r="DI9" s="87"/>
-      <c r="DJ9" s="85">
+      <c r="DD9" s="100"/>
+      <c r="DE9" s="100"/>
+      <c r="DF9" s="100"/>
+      <c r="DG9" s="100"/>
+      <c r="DH9" s="100"/>
+      <c r="DI9" s="101"/>
+      <c r="DJ9" s="99">
         <f>DJ6</f>
         <v>42484</v>
       </c>
-      <c r="DK9" s="86"/>
-      <c r="DL9" s="86"/>
-      <c r="DM9" s="86"/>
-      <c r="DN9" s="86"/>
-      <c r="DO9" s="86"/>
-      <c r="DP9" s="87"/>
-      <c r="DQ9" s="85">
+      <c r="DK9" s="100"/>
+      <c r="DL9" s="100"/>
+      <c r="DM9" s="100"/>
+      <c r="DN9" s="100"/>
+      <c r="DO9" s="100"/>
+      <c r="DP9" s="101"/>
+      <c r="DQ9" s="99">
         <f>DQ6</f>
         <v>42491</v>
       </c>
-      <c r="DR9" s="86"/>
-      <c r="DS9" s="86"/>
-      <c r="DT9" s="86"/>
-      <c r="DU9" s="86"/>
-      <c r="DV9" s="86"/>
-      <c r="DW9" s="87"/>
-      <c r="DX9" s="85">
+      <c r="DR9" s="100"/>
+      <c r="DS9" s="100"/>
+      <c r="DT9" s="100"/>
+      <c r="DU9" s="100"/>
+      <c r="DV9" s="100"/>
+      <c r="DW9" s="101"/>
+      <c r="DX9" s="99">
         <f>DX6</f>
         <v>42498</v>
       </c>
-      <c r="DY9" s="86"/>
-      <c r="DZ9" s="86"/>
-      <c r="EA9" s="86"/>
-      <c r="EB9" s="86"/>
-      <c r="EC9" s="86"/>
-      <c r="ED9" s="87"/>
-      <c r="EE9" s="85">
+      <c r="DY9" s="100"/>
+      <c r="DZ9" s="100"/>
+      <c r="EA9" s="100"/>
+      <c r="EB9" s="100"/>
+      <c r="EC9" s="100"/>
+      <c r="ED9" s="101"/>
+      <c r="EE9" s="99">
         <f>EE6</f>
         <v>42505</v>
       </c>
-      <c r="EF9" s="86"/>
-      <c r="EG9" s="86"/>
-      <c r="EH9" s="86"/>
-      <c r="EI9" s="86"/>
-      <c r="EJ9" s="86"/>
-      <c r="EK9" s="87"/>
-      <c r="EL9" s="85">
+      <c r="EF9" s="100"/>
+      <c r="EG9" s="100"/>
+      <c r="EH9" s="100"/>
+      <c r="EI9" s="100"/>
+      <c r="EJ9" s="100"/>
+      <c r="EK9" s="101"/>
+      <c r="EL9" s="99">
         <f>EL6</f>
         <v>42512</v>
       </c>
-      <c r="EM9" s="86"/>
-      <c r="EN9" s="86"/>
-      <c r="EO9" s="86"/>
-      <c r="EP9" s="86"/>
-      <c r="EQ9" s="86"/>
-      <c r="ER9" s="87"/>
-      <c r="ES9" s="85">
+      <c r="EM9" s="100"/>
+      <c r="EN9" s="100"/>
+      <c r="EO9" s="100"/>
+      <c r="EP9" s="100"/>
+      <c r="EQ9" s="100"/>
+      <c r="ER9" s="101"/>
+      <c r="ES9" s="99">
         <f>ES6</f>
         <v>42519</v>
       </c>
-      <c r="ET9" s="86"/>
-      <c r="EU9" s="86"/>
-      <c r="EV9" s="86"/>
-      <c r="EW9" s="86"/>
-      <c r="EX9" s="86"/>
-      <c r="EY9" s="87"/>
-      <c r="EZ9" s="85">
+      <c r="ET9" s="100"/>
+      <c r="EU9" s="100"/>
+      <c r="EV9" s="100"/>
+      <c r="EW9" s="100"/>
+      <c r="EX9" s="100"/>
+      <c r="EY9" s="101"/>
+      <c r="EZ9" s="99">
         <f>EZ6</f>
         <v>42526</v>
       </c>
-      <c r="FA9" s="86"/>
-      <c r="FB9" s="86"/>
-      <c r="FC9" s="86"/>
-      <c r="FD9" s="86"/>
-      <c r="FE9" s="86"/>
-      <c r="FF9" s="87"/>
-      <c r="FG9" s="85">
+      <c r="FA9" s="100"/>
+      <c r="FB9" s="100"/>
+      <c r="FC9" s="100"/>
+      <c r="FD9" s="100"/>
+      <c r="FE9" s="100"/>
+      <c r="FF9" s="101"/>
+      <c r="FG9" s="99">
         <f>FG6</f>
         <v>42533</v>
       </c>
-      <c r="FH9" s="86"/>
-      <c r="FI9" s="86"/>
-      <c r="FJ9" s="86"/>
-      <c r="FK9" s="86"/>
-      <c r="FL9" s="86"/>
-      <c r="FM9" s="87"/>
-      <c r="FN9" s="85">
+      <c r="FH9" s="100"/>
+      <c r="FI9" s="100"/>
+      <c r="FJ9" s="100"/>
+      <c r="FK9" s="100"/>
+      <c r="FL9" s="100"/>
+      <c r="FM9" s="101"/>
+      <c r="FN9" s="99">
         <f>FN6</f>
         <v>42540</v>
       </c>
-      <c r="FO9" s="86"/>
-      <c r="FP9" s="86"/>
-      <c r="FQ9" s="86"/>
-      <c r="FR9" s="86"/>
-      <c r="FS9" s="86"/>
-      <c r="FT9" s="87"/>
-      <c r="FU9" s="85">
+      <c r="FO9" s="100"/>
+      <c r="FP9" s="100"/>
+      <c r="FQ9" s="100"/>
+      <c r="FR9" s="100"/>
+      <c r="FS9" s="100"/>
+      <c r="FT9" s="101"/>
+      <c r="FU9" s="99">
         <f>FU6</f>
         <v>42547</v>
       </c>
-      <c r="FV9" s="86"/>
-      <c r="FW9" s="86"/>
-      <c r="FX9" s="86"/>
-      <c r="FY9" s="86"/>
-      <c r="FZ9" s="86"/>
-      <c r="GA9" s="87"/>
-      <c r="GB9" s="85">
+      <c r="FV9" s="100"/>
+      <c r="FW9" s="100"/>
+      <c r="FX9" s="100"/>
+      <c r="FY9" s="100"/>
+      <c r="FZ9" s="100"/>
+      <c r="GA9" s="101"/>
+      <c r="GB9" s="99">
         <f>GB6</f>
         <v>42554</v>
       </c>
-      <c r="GC9" s="86"/>
-      <c r="GD9" s="86"/>
-      <c r="GE9" s="86"/>
-      <c r="GF9" s="86"/>
-      <c r="GG9" s="86"/>
-      <c r="GH9" s="87"/>
-      <c r="GI9" s="85">
+      <c r="GC9" s="100"/>
+      <c r="GD9" s="100"/>
+      <c r="GE9" s="100"/>
+      <c r="GF9" s="100"/>
+      <c r="GG9" s="100"/>
+      <c r="GH9" s="101"/>
+      <c r="GI9" s="99">
         <f>GI6</f>
         <v>42561</v>
       </c>
-      <c r="GJ9" s="86"/>
-      <c r="GK9" s="86"/>
-      <c r="GL9" s="86"/>
-      <c r="GM9" s="86"/>
-      <c r="GN9" s="86"/>
-      <c r="GO9" s="87"/>
-      <c r="GP9" s="85">
+      <c r="GJ9" s="100"/>
+      <c r="GK9" s="100"/>
+      <c r="GL9" s="100"/>
+      <c r="GM9" s="100"/>
+      <c r="GN9" s="100"/>
+      <c r="GO9" s="101"/>
+      <c r="GP9" s="99">
         <f>GP6</f>
         <v>42568</v>
       </c>
-      <c r="GQ9" s="86"/>
-      <c r="GR9" s="86"/>
-      <c r="GS9" s="86"/>
-      <c r="GT9" s="86"/>
-      <c r="GU9" s="86"/>
-      <c r="GV9" s="87"/>
-      <c r="GW9" s="85">
+      <c r="GQ9" s="100"/>
+      <c r="GR9" s="100"/>
+      <c r="GS9" s="100"/>
+      <c r="GT9" s="100"/>
+      <c r="GU9" s="100"/>
+      <c r="GV9" s="101"/>
+      <c r="GW9" s="99">
         <f>GW6</f>
         <v>42575</v>
       </c>
-      <c r="GX9" s="86"/>
-      <c r="GY9" s="86"/>
-      <c r="GZ9" s="86"/>
-      <c r="HA9" s="86"/>
-      <c r="HB9" s="86"/>
-      <c r="HC9" s="87"/>
-      <c r="HD9" s="85">
+      <c r="GX9" s="100"/>
+      <c r="GY9" s="100"/>
+      <c r="GZ9" s="100"/>
+      <c r="HA9" s="100"/>
+      <c r="HB9" s="100"/>
+      <c r="HC9" s="101"/>
+      <c r="HD9" s="99">
         <f>HD6</f>
         <v>42582</v>
       </c>
-      <c r="HE9" s="86"/>
-      <c r="HF9" s="86"/>
-      <c r="HG9" s="86"/>
-      <c r="HH9" s="86"/>
-      <c r="HI9" s="86"/>
-      <c r="HJ9" s="87"/>
-      <c r="HK9" s="85">
+      <c r="HE9" s="100"/>
+      <c r="HF9" s="100"/>
+      <c r="HG9" s="100"/>
+      <c r="HH9" s="100"/>
+      <c r="HI9" s="100"/>
+      <c r="HJ9" s="101"/>
+      <c r="HK9" s="99">
         <f>HK6</f>
         <v>42589</v>
       </c>
-      <c r="HL9" s="86"/>
-      <c r="HM9" s="86"/>
-      <c r="HN9" s="86"/>
-      <c r="HO9" s="86"/>
-      <c r="HP9" s="86"/>
-      <c r="HQ9" s="87"/>
-      <c r="HR9" s="85">
+      <c r="HL9" s="100"/>
+      <c r="HM9" s="100"/>
+      <c r="HN9" s="100"/>
+      <c r="HO9" s="100"/>
+      <c r="HP9" s="100"/>
+      <c r="HQ9" s="101"/>
+      <c r="HR9" s="99">
         <f>HR6</f>
         <v>42596</v>
       </c>
-      <c r="HS9" s="86"/>
-      <c r="HT9" s="86"/>
-      <c r="HU9" s="86"/>
-      <c r="HV9" s="86"/>
-      <c r="HW9" s="86"/>
-      <c r="HX9" s="87"/>
-      <c r="HY9" s="85">
+      <c r="HS9" s="100"/>
+      <c r="HT9" s="100"/>
+      <c r="HU9" s="100"/>
+      <c r="HV9" s="100"/>
+      <c r="HW9" s="100"/>
+      <c r="HX9" s="101"/>
+      <c r="HY9" s="99">
         <f>HY6</f>
         <v>42603</v>
       </c>
-      <c r="HZ9" s="86"/>
-      <c r="IA9" s="86"/>
-      <c r="IB9" s="86"/>
-      <c r="IC9" s="86"/>
-      <c r="ID9" s="86"/>
-      <c r="IE9" s="87"/>
-      <c r="IF9" s="85">
+      <c r="HZ9" s="100"/>
+      <c r="IA9" s="100"/>
+      <c r="IB9" s="100"/>
+      <c r="IC9" s="100"/>
+      <c r="ID9" s="100"/>
+      <c r="IE9" s="101"/>
+      <c r="IF9" s="99">
         <f>IF6</f>
         <v>42610</v>
       </c>
-      <c r="IG9" s="86"/>
-      <c r="IH9" s="86"/>
-      <c r="II9" s="86"/>
-      <c r="IJ9" s="86"/>
-      <c r="IK9" s="86"/>
-      <c r="IL9" s="87"/>
-      <c r="IM9" s="85">
+      <c r="IG9" s="100"/>
+      <c r="IH9" s="100"/>
+      <c r="II9" s="100"/>
+      <c r="IJ9" s="100"/>
+      <c r="IK9" s="100"/>
+      <c r="IL9" s="101"/>
+      <c r="IM9" s="99">
         <f>IM6</f>
         <v>42617</v>
       </c>
-      <c r="IN9" s="86"/>
-      <c r="IO9" s="86"/>
-      <c r="IP9" s="86"/>
-      <c r="IQ9" s="86"/>
-      <c r="IR9" s="86"/>
-      <c r="IS9" s="87"/>
+      <c r="IN9" s="100"/>
+      <c r="IO9" s="100"/>
+      <c r="IP9" s="100"/>
+      <c r="IQ9" s="100"/>
+      <c r="IR9" s="100"/>
+      <c r="IS9" s="101"/>
     </row>
     <row r="10" spans="1:256" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="102"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
+      <c r="B10" s="97"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
       <c r="O10" s="42"/>
-      <c r="P10" s="82">
+      <c r="P10" s="90">
         <f>P7</f>
         <v>4</v>
       </c>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="83"/>
-      <c r="V10" s="84"/>
-      <c r="W10" s="82">
+      <c r="Q10" s="91"/>
+      <c r="R10" s="91"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="91"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="90">
         <f>W7</f>
         <v>5</v>
       </c>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="83"/>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="83"/>
-      <c r="AB10" s="83"/>
-      <c r="AC10" s="84"/>
-      <c r="AD10" s="82">
+      <c r="X10" s="91"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="91"/>
+      <c r="AB10" s="91"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="90">
         <f>AD7</f>
         <v>6</v>
       </c>
-      <c r="AE10" s="83"/>
-      <c r="AF10" s="83"/>
-      <c r="AG10" s="83"/>
-      <c r="AH10" s="83"/>
-      <c r="AI10" s="83"/>
-      <c r="AJ10" s="84"/>
-      <c r="AK10" s="82">
+      <c r="AE10" s="91"/>
+      <c r="AF10" s="91"/>
+      <c r="AG10" s="91"/>
+      <c r="AH10" s="91"/>
+      <c r="AI10" s="91"/>
+      <c r="AJ10" s="92"/>
+      <c r="AK10" s="90">
         <f>AK7</f>
         <v>7</v>
       </c>
-      <c r="AL10" s="83"/>
-      <c r="AM10" s="83"/>
-      <c r="AN10" s="83"/>
-      <c r="AO10" s="83"/>
-      <c r="AP10" s="83"/>
-      <c r="AQ10" s="84"/>
-      <c r="AR10" s="82">
+      <c r="AL10" s="91"/>
+      <c r="AM10" s="91"/>
+      <c r="AN10" s="91"/>
+      <c r="AO10" s="91"/>
+      <c r="AP10" s="91"/>
+      <c r="AQ10" s="92"/>
+      <c r="AR10" s="90">
         <f>AR7</f>
         <v>8</v>
       </c>
-      <c r="AS10" s="83"/>
-      <c r="AT10" s="83"/>
-      <c r="AU10" s="83"/>
-      <c r="AV10" s="83"/>
-      <c r="AW10" s="83"/>
-      <c r="AX10" s="84"/>
-      <c r="AY10" s="82">
+      <c r="AS10" s="91"/>
+      <c r="AT10" s="91"/>
+      <c r="AU10" s="91"/>
+      <c r="AV10" s="91"/>
+      <c r="AW10" s="91"/>
+      <c r="AX10" s="92"/>
+      <c r="AY10" s="90">
         <f>AY7</f>
         <v>9</v>
       </c>
-      <c r="AZ10" s="83"/>
-      <c r="BA10" s="83"/>
-      <c r="BB10" s="83"/>
-      <c r="BC10" s="83"/>
-      <c r="BD10" s="83"/>
-      <c r="BE10" s="84"/>
-      <c r="BF10" s="82">
+      <c r="AZ10" s="91"/>
+      <c r="BA10" s="91"/>
+      <c r="BB10" s="91"/>
+      <c r="BC10" s="91"/>
+      <c r="BD10" s="91"/>
+      <c r="BE10" s="92"/>
+      <c r="BF10" s="90">
         <f>BF7</f>
         <v>10</v>
       </c>
-      <c r="BG10" s="83"/>
-      <c r="BH10" s="83"/>
-      <c r="BI10" s="83"/>
-      <c r="BJ10" s="83"/>
-      <c r="BK10" s="83"/>
-      <c r="BL10" s="84"/>
-      <c r="BM10" s="82">
+      <c r="BG10" s="91"/>
+      <c r="BH10" s="91"/>
+      <c r="BI10" s="91"/>
+      <c r="BJ10" s="91"/>
+      <c r="BK10" s="91"/>
+      <c r="BL10" s="92"/>
+      <c r="BM10" s="90">
         <f>BM7</f>
         <v>11</v>
       </c>
-      <c r="BN10" s="83"/>
-      <c r="BO10" s="83"/>
-      <c r="BP10" s="83"/>
-      <c r="BQ10" s="83"/>
-      <c r="BR10" s="83"/>
-      <c r="BS10" s="84"/>
-      <c r="BT10" s="82">
+      <c r="BN10" s="91"/>
+      <c r="BO10" s="91"/>
+      <c r="BP10" s="91"/>
+      <c r="BQ10" s="91"/>
+      <c r="BR10" s="91"/>
+      <c r="BS10" s="92"/>
+      <c r="BT10" s="90">
         <f>BT7</f>
         <v>12</v>
       </c>
-      <c r="BU10" s="83"/>
-      <c r="BV10" s="83"/>
-      <c r="BW10" s="83"/>
-      <c r="BX10" s="83"/>
-      <c r="BY10" s="83"/>
-      <c r="BZ10" s="84"/>
-      <c r="CA10" s="82">
+      <c r="BU10" s="91"/>
+      <c r="BV10" s="91"/>
+      <c r="BW10" s="91"/>
+      <c r="BX10" s="91"/>
+      <c r="BY10" s="91"/>
+      <c r="BZ10" s="92"/>
+      <c r="CA10" s="90">
         <f>CA7</f>
         <v>13</v>
       </c>
-      <c r="CB10" s="83"/>
-      <c r="CC10" s="83"/>
-      <c r="CD10" s="83"/>
-      <c r="CE10" s="83"/>
-      <c r="CF10" s="83"/>
-      <c r="CG10" s="84"/>
-      <c r="CH10" s="82">
+      <c r="CB10" s="91"/>
+      <c r="CC10" s="91"/>
+      <c r="CD10" s="91"/>
+      <c r="CE10" s="91"/>
+      <c r="CF10" s="91"/>
+      <c r="CG10" s="92"/>
+      <c r="CH10" s="90">
         <f>CH7</f>
         <v>14</v>
       </c>
-      <c r="CI10" s="83"/>
-      <c r="CJ10" s="83"/>
-      <c r="CK10" s="83"/>
-      <c r="CL10" s="83"/>
-      <c r="CM10" s="83"/>
-      <c r="CN10" s="84"/>
-      <c r="CO10" s="82">
+      <c r="CI10" s="91"/>
+      <c r="CJ10" s="91"/>
+      <c r="CK10" s="91"/>
+      <c r="CL10" s="91"/>
+      <c r="CM10" s="91"/>
+      <c r="CN10" s="92"/>
+      <c r="CO10" s="90">
         <f>CO7</f>
         <v>15</v>
       </c>
-      <c r="CP10" s="83"/>
-      <c r="CQ10" s="83"/>
-      <c r="CR10" s="83"/>
-      <c r="CS10" s="83"/>
-      <c r="CT10" s="83"/>
-      <c r="CU10" s="84"/>
-      <c r="CV10" s="82">
+      <c r="CP10" s="91"/>
+      <c r="CQ10" s="91"/>
+      <c r="CR10" s="91"/>
+      <c r="CS10" s="91"/>
+      <c r="CT10" s="91"/>
+      <c r="CU10" s="92"/>
+      <c r="CV10" s="90">
         <f>CV7</f>
         <v>16</v>
       </c>
-      <c r="CW10" s="83"/>
-      <c r="CX10" s="83"/>
-      <c r="CY10" s="83"/>
-      <c r="CZ10" s="83"/>
-      <c r="DA10" s="83"/>
-      <c r="DB10" s="84"/>
-      <c r="DC10" s="82">
+      <c r="CW10" s="91"/>
+      <c r="CX10" s="91"/>
+      <c r="CY10" s="91"/>
+      <c r="CZ10" s="91"/>
+      <c r="DA10" s="91"/>
+      <c r="DB10" s="92"/>
+      <c r="DC10" s="90">
         <f>DC7</f>
         <v>17</v>
       </c>
-      <c r="DD10" s="83"/>
-      <c r="DE10" s="83"/>
-      <c r="DF10" s="83"/>
-      <c r="DG10" s="83"/>
-      <c r="DH10" s="83"/>
-      <c r="DI10" s="84"/>
-      <c r="DJ10" s="82">
+      <c r="DD10" s="91"/>
+      <c r="DE10" s="91"/>
+      <c r="DF10" s="91"/>
+      <c r="DG10" s="91"/>
+      <c r="DH10" s="91"/>
+      <c r="DI10" s="92"/>
+      <c r="DJ10" s="90">
         <f>DJ7</f>
         <v>18</v>
       </c>
-      <c r="DK10" s="83"/>
-      <c r="DL10" s="83"/>
-      <c r="DM10" s="83"/>
-      <c r="DN10" s="83"/>
-      <c r="DO10" s="83"/>
-      <c r="DP10" s="84"/>
-      <c r="DQ10" s="82">
+      <c r="DK10" s="91"/>
+      <c r="DL10" s="91"/>
+      <c r="DM10" s="91"/>
+      <c r="DN10" s="91"/>
+      <c r="DO10" s="91"/>
+      <c r="DP10" s="92"/>
+      <c r="DQ10" s="90">
         <f>DQ7</f>
         <v>19</v>
       </c>
-      <c r="DR10" s="83"/>
-      <c r="DS10" s="83"/>
-      <c r="DT10" s="83"/>
-      <c r="DU10" s="83"/>
-      <c r="DV10" s="83"/>
-      <c r="DW10" s="84"/>
-      <c r="DX10" s="82">
+      <c r="DR10" s="91"/>
+      <c r="DS10" s="91"/>
+      <c r="DT10" s="91"/>
+      <c r="DU10" s="91"/>
+      <c r="DV10" s="91"/>
+      <c r="DW10" s="92"/>
+      <c r="DX10" s="90">
         <f>DX7</f>
         <v>20</v>
       </c>
-      <c r="DY10" s="83"/>
-      <c r="DZ10" s="83"/>
-      <c r="EA10" s="83"/>
-      <c r="EB10" s="83"/>
-      <c r="EC10" s="83"/>
-      <c r="ED10" s="84"/>
-      <c r="EE10" s="82">
+      <c r="DY10" s="91"/>
+      <c r="DZ10" s="91"/>
+      <c r="EA10" s="91"/>
+      <c r="EB10" s="91"/>
+      <c r="EC10" s="91"/>
+      <c r="ED10" s="92"/>
+      <c r="EE10" s="90">
         <f>EE7</f>
         <v>21</v>
       </c>
-      <c r="EF10" s="83"/>
-      <c r="EG10" s="83"/>
-      <c r="EH10" s="83"/>
-      <c r="EI10" s="83"/>
-      <c r="EJ10" s="83"/>
-      <c r="EK10" s="84"/>
-      <c r="EL10" s="82">
+      <c r="EF10" s="91"/>
+      <c r="EG10" s="91"/>
+      <c r="EH10" s="91"/>
+      <c r="EI10" s="91"/>
+      <c r="EJ10" s="91"/>
+      <c r="EK10" s="92"/>
+      <c r="EL10" s="90">
         <f>EL7</f>
         <v>22</v>
       </c>
-      <c r="EM10" s="83"/>
-      <c r="EN10" s="83"/>
-      <c r="EO10" s="83"/>
-      <c r="EP10" s="83"/>
-      <c r="EQ10" s="83"/>
-      <c r="ER10" s="84"/>
-      <c r="ES10" s="82">
+      <c r="EM10" s="91"/>
+      <c r="EN10" s="91"/>
+      <c r="EO10" s="91"/>
+      <c r="EP10" s="91"/>
+      <c r="EQ10" s="91"/>
+      <c r="ER10" s="92"/>
+      <c r="ES10" s="90">
         <f>ES7</f>
         <v>23</v>
       </c>
-      <c r="ET10" s="83"/>
-      <c r="EU10" s="83"/>
-      <c r="EV10" s="83"/>
-      <c r="EW10" s="83"/>
-      <c r="EX10" s="83"/>
-      <c r="EY10" s="84"/>
-      <c r="EZ10" s="82">
+      <c r="ET10" s="91"/>
+      <c r="EU10" s="91"/>
+      <c r="EV10" s="91"/>
+      <c r="EW10" s="91"/>
+      <c r="EX10" s="91"/>
+      <c r="EY10" s="92"/>
+      <c r="EZ10" s="90">
         <f>EZ7</f>
         <v>24</v>
       </c>
-      <c r="FA10" s="83"/>
-      <c r="FB10" s="83"/>
-      <c r="FC10" s="83"/>
-      <c r="FD10" s="83"/>
-      <c r="FE10" s="83"/>
-      <c r="FF10" s="84"/>
-      <c r="FG10" s="82">
+      <c r="FA10" s="91"/>
+      <c r="FB10" s="91"/>
+      <c r="FC10" s="91"/>
+      <c r="FD10" s="91"/>
+      <c r="FE10" s="91"/>
+      <c r="FF10" s="92"/>
+      <c r="FG10" s="90">
         <f>FG7</f>
         <v>25</v>
       </c>
-      <c r="FH10" s="83"/>
-      <c r="FI10" s="83"/>
-      <c r="FJ10" s="83"/>
-      <c r="FK10" s="83"/>
-      <c r="FL10" s="83"/>
-      <c r="FM10" s="84"/>
-      <c r="FN10" s="82">
+      <c r="FH10" s="91"/>
+      <c r="FI10" s="91"/>
+      <c r="FJ10" s="91"/>
+      <c r="FK10" s="91"/>
+      <c r="FL10" s="91"/>
+      <c r="FM10" s="92"/>
+      <c r="FN10" s="90">
         <f>FN7</f>
         <v>26</v>
       </c>
-      <c r="FO10" s="83"/>
-      <c r="FP10" s="83"/>
-      <c r="FQ10" s="83"/>
-      <c r="FR10" s="83"/>
-      <c r="FS10" s="83"/>
-      <c r="FT10" s="84"/>
-      <c r="FU10" s="82">
+      <c r="FO10" s="91"/>
+      <c r="FP10" s="91"/>
+      <c r="FQ10" s="91"/>
+      <c r="FR10" s="91"/>
+      <c r="FS10" s="91"/>
+      <c r="FT10" s="92"/>
+      <c r="FU10" s="90">
         <f>FU7</f>
         <v>27</v>
       </c>
-      <c r="FV10" s="83"/>
-      <c r="FW10" s="83"/>
-      <c r="FX10" s="83"/>
-      <c r="FY10" s="83"/>
-      <c r="FZ10" s="83"/>
-      <c r="GA10" s="84"/>
-      <c r="GB10" s="82">
+      <c r="FV10" s="91"/>
+      <c r="FW10" s="91"/>
+      <c r="FX10" s="91"/>
+      <c r="FY10" s="91"/>
+      <c r="FZ10" s="91"/>
+      <c r="GA10" s="92"/>
+      <c r="GB10" s="90">
         <f>GB7</f>
         <v>28</v>
       </c>
-      <c r="GC10" s="83"/>
-      <c r="GD10" s="83"/>
-      <c r="GE10" s="83"/>
-      <c r="GF10" s="83"/>
-      <c r="GG10" s="83"/>
-      <c r="GH10" s="84"/>
-      <c r="GI10" s="82">
+      <c r="GC10" s="91"/>
+      <c r="GD10" s="91"/>
+      <c r="GE10" s="91"/>
+      <c r="GF10" s="91"/>
+      <c r="GG10" s="91"/>
+      <c r="GH10" s="92"/>
+      <c r="GI10" s="90">
         <f>GI7</f>
         <v>29</v>
       </c>
-      <c r="GJ10" s="83"/>
-      <c r="GK10" s="83"/>
-      <c r="GL10" s="83"/>
-      <c r="GM10" s="83"/>
-      <c r="GN10" s="83"/>
-      <c r="GO10" s="84"/>
-      <c r="GP10" s="82">
+      <c r="GJ10" s="91"/>
+      <c r="GK10" s="91"/>
+      <c r="GL10" s="91"/>
+      <c r="GM10" s="91"/>
+      <c r="GN10" s="91"/>
+      <c r="GO10" s="92"/>
+      <c r="GP10" s="90">
         <f>GP7</f>
         <v>30</v>
       </c>
-      <c r="GQ10" s="83"/>
-      <c r="GR10" s="83"/>
-      <c r="GS10" s="83"/>
-      <c r="GT10" s="83"/>
-      <c r="GU10" s="83"/>
-      <c r="GV10" s="84"/>
-      <c r="GW10" s="82">
+      <c r="GQ10" s="91"/>
+      <c r="GR10" s="91"/>
+      <c r="GS10" s="91"/>
+      <c r="GT10" s="91"/>
+      <c r="GU10" s="91"/>
+      <c r="GV10" s="92"/>
+      <c r="GW10" s="90">
         <f>GW7</f>
         <v>31</v>
       </c>
-      <c r="GX10" s="83"/>
-      <c r="GY10" s="83"/>
-      <c r="GZ10" s="83"/>
-      <c r="HA10" s="83"/>
-      <c r="HB10" s="83"/>
-      <c r="HC10" s="84"/>
-      <c r="HD10" s="82">
+      <c r="GX10" s="91"/>
+      <c r="GY10" s="91"/>
+      <c r="GZ10" s="91"/>
+      <c r="HA10" s="91"/>
+      <c r="HB10" s="91"/>
+      <c r="HC10" s="92"/>
+      <c r="HD10" s="90">
         <f>HD7</f>
         <v>32</v>
       </c>
-      <c r="HE10" s="83"/>
-      <c r="HF10" s="83"/>
-      <c r="HG10" s="83"/>
-      <c r="HH10" s="83"/>
-      <c r="HI10" s="83"/>
-      <c r="HJ10" s="84"/>
-      <c r="HK10" s="82">
+      <c r="HE10" s="91"/>
+      <c r="HF10" s="91"/>
+      <c r="HG10" s="91"/>
+      <c r="HH10" s="91"/>
+      <c r="HI10" s="91"/>
+      <c r="HJ10" s="92"/>
+      <c r="HK10" s="90">
         <f>HK7</f>
         <v>33</v>
       </c>
-      <c r="HL10" s="83"/>
-      <c r="HM10" s="83"/>
-      <c r="HN10" s="83"/>
-      <c r="HO10" s="83"/>
-      <c r="HP10" s="83"/>
-      <c r="HQ10" s="84"/>
-      <c r="HR10" s="82">
+      <c r="HL10" s="91"/>
+      <c r="HM10" s="91"/>
+      <c r="HN10" s="91"/>
+      <c r="HO10" s="91"/>
+      <c r="HP10" s="91"/>
+      <c r="HQ10" s="92"/>
+      <c r="HR10" s="90">
         <f>HR7</f>
         <v>34</v>
       </c>
-      <c r="HS10" s="83"/>
-      <c r="HT10" s="83"/>
-      <c r="HU10" s="83"/>
-      <c r="HV10" s="83"/>
-      <c r="HW10" s="83"/>
-      <c r="HX10" s="84"/>
-      <c r="HY10" s="82">
+      <c r="HS10" s="91"/>
+      <c r="HT10" s="91"/>
+      <c r="HU10" s="91"/>
+      <c r="HV10" s="91"/>
+      <c r="HW10" s="91"/>
+      <c r="HX10" s="92"/>
+      <c r="HY10" s="90">
         <f>HY7</f>
         <v>35</v>
       </c>
-      <c r="HZ10" s="83"/>
-      <c r="IA10" s="83"/>
-      <c r="IB10" s="83"/>
-      <c r="IC10" s="83"/>
-      <c r="ID10" s="83"/>
-      <c r="IE10" s="84"/>
-      <c r="IF10" s="82">
+      <c r="HZ10" s="91"/>
+      <c r="IA10" s="91"/>
+      <c r="IB10" s="91"/>
+      <c r="IC10" s="91"/>
+      <c r="ID10" s="91"/>
+      <c r="IE10" s="92"/>
+      <c r="IF10" s="90">
         <f>IF7</f>
         <v>36</v>
       </c>
-      <c r="IG10" s="83"/>
-      <c r="IH10" s="83"/>
-      <c r="II10" s="83"/>
-      <c r="IJ10" s="83"/>
-      <c r="IK10" s="83"/>
-      <c r="IL10" s="84"/>
-      <c r="IM10" s="82">
+      <c r="IG10" s="91"/>
+      <c r="IH10" s="91"/>
+      <c r="II10" s="91"/>
+      <c r="IJ10" s="91"/>
+      <c r="IK10" s="91"/>
+      <c r="IL10" s="92"/>
+      <c r="IM10" s="90">
         <f>IM7</f>
         <v>37</v>
       </c>
-      <c r="IN10" s="83"/>
-      <c r="IO10" s="83"/>
-      <c r="IP10" s="83"/>
-      <c r="IQ10" s="83"/>
-      <c r="IR10" s="83"/>
-      <c r="IS10" s="84"/>
+      <c r="IN10" s="91"/>
+      <c r="IO10" s="91"/>
+      <c r="IP10" s="91"/>
+      <c r="IQ10" s="91"/>
+      <c r="IR10" s="91"/>
+      <c r="IS10" s="92"/>
     </row>
     <row r="11" spans="1:256" s="7" customFormat="1" ht="25.5" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="103"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
       <c r="F11" s="3" t="s">
         <v>4</v>
       </c>
@@ -6133,353 +6133,353 @@
       <c r="H11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="101"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
       <c r="O11" s="34"/>
-      <c r="P11" s="88">
+      <c r="P11" s="87">
         <f>YEAR(P6)</f>
         <v>2016</v>
       </c>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="91"/>
-      <c r="T11" s="91"/>
-      <c r="U11" s="91"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="88">
+      <c r="Q11" s="102"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="102"/>
+      <c r="V11" s="103"/>
+      <c r="W11" s="87">
         <f>YEAR(W6)</f>
         <v>2016</v>
       </c>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="89"/>
-      <c r="Z11" s="89"/>
-      <c r="AA11" s="89"/>
-      <c r="AB11" s="89"/>
-      <c r="AC11" s="90"/>
-      <c r="AD11" s="88">
+      <c r="X11" s="88"/>
+      <c r="Y11" s="88"/>
+      <c r="Z11" s="88"/>
+      <c r="AA11" s="88"/>
+      <c r="AB11" s="88"/>
+      <c r="AC11" s="89"/>
+      <c r="AD11" s="87">
         <f>YEAR(AD6)</f>
         <v>2016</v>
       </c>
-      <c r="AE11" s="89"/>
-      <c r="AF11" s="89"/>
-      <c r="AG11" s="89"/>
-      <c r="AH11" s="89"/>
-      <c r="AI11" s="89"/>
-      <c r="AJ11" s="90"/>
-      <c r="AK11" s="88">
+      <c r="AE11" s="88"/>
+      <c r="AF11" s="88"/>
+      <c r="AG11" s="88"/>
+      <c r="AH11" s="88"/>
+      <c r="AI11" s="88"/>
+      <c r="AJ11" s="89"/>
+      <c r="AK11" s="87">
         <f>YEAR(AK6)</f>
         <v>2016</v>
       </c>
-      <c r="AL11" s="89"/>
-      <c r="AM11" s="89"/>
-      <c r="AN11" s="89"/>
-      <c r="AO11" s="89"/>
-      <c r="AP11" s="89"/>
-      <c r="AQ11" s="90"/>
-      <c r="AR11" s="88">
+      <c r="AL11" s="88"/>
+      <c r="AM11" s="88"/>
+      <c r="AN11" s="88"/>
+      <c r="AO11" s="88"/>
+      <c r="AP11" s="88"/>
+      <c r="AQ11" s="89"/>
+      <c r="AR11" s="87">
         <f>YEAR(AR6)</f>
         <v>2016</v>
       </c>
-      <c r="AS11" s="89"/>
-      <c r="AT11" s="89"/>
-      <c r="AU11" s="89"/>
-      <c r="AV11" s="89"/>
-      <c r="AW11" s="89"/>
-      <c r="AX11" s="90"/>
-      <c r="AY11" s="88">
+      <c r="AS11" s="88"/>
+      <c r="AT11" s="88"/>
+      <c r="AU11" s="88"/>
+      <c r="AV11" s="88"/>
+      <c r="AW11" s="88"/>
+      <c r="AX11" s="89"/>
+      <c r="AY11" s="87">
         <f>YEAR(AY6)</f>
         <v>2016</v>
       </c>
-      <c r="AZ11" s="89"/>
-      <c r="BA11" s="89"/>
-      <c r="BB11" s="89"/>
-      <c r="BC11" s="89"/>
-      <c r="BD11" s="89"/>
-      <c r="BE11" s="90"/>
-      <c r="BF11" s="88">
+      <c r="AZ11" s="88"/>
+      <c r="BA11" s="88"/>
+      <c r="BB11" s="88"/>
+      <c r="BC11" s="88"/>
+      <c r="BD11" s="88"/>
+      <c r="BE11" s="89"/>
+      <c r="BF11" s="87">
         <f>YEAR(BF6)</f>
         <v>2016</v>
       </c>
-      <c r="BG11" s="89"/>
-      <c r="BH11" s="89"/>
-      <c r="BI11" s="89"/>
-      <c r="BJ11" s="89"/>
-      <c r="BK11" s="89"/>
-      <c r="BL11" s="90"/>
-      <c r="BM11" s="88">
+      <c r="BG11" s="88"/>
+      <c r="BH11" s="88"/>
+      <c r="BI11" s="88"/>
+      <c r="BJ11" s="88"/>
+      <c r="BK11" s="88"/>
+      <c r="BL11" s="89"/>
+      <c r="BM11" s="87">
         <f>YEAR(BM6)</f>
         <v>2016</v>
       </c>
-      <c r="BN11" s="89"/>
-      <c r="BO11" s="89"/>
-      <c r="BP11" s="89"/>
-      <c r="BQ11" s="89"/>
-      <c r="BR11" s="89"/>
-      <c r="BS11" s="90"/>
-      <c r="BT11" s="88">
+      <c r="BN11" s="88"/>
+      <c r="BO11" s="88"/>
+      <c r="BP11" s="88"/>
+      <c r="BQ11" s="88"/>
+      <c r="BR11" s="88"/>
+      <c r="BS11" s="89"/>
+      <c r="BT11" s="87">
         <f>YEAR(BT6)</f>
         <v>2016</v>
       </c>
-      <c r="BU11" s="89"/>
-      <c r="BV11" s="89"/>
-      <c r="BW11" s="89"/>
-      <c r="BX11" s="89"/>
-      <c r="BY11" s="89"/>
-      <c r="BZ11" s="90"/>
-      <c r="CA11" s="88">
+      <c r="BU11" s="88"/>
+      <c r="BV11" s="88"/>
+      <c r="BW11" s="88"/>
+      <c r="BX11" s="88"/>
+      <c r="BY11" s="88"/>
+      <c r="BZ11" s="89"/>
+      <c r="CA11" s="87">
         <f>YEAR(CA6)</f>
         <v>2016</v>
       </c>
-      <c r="CB11" s="89"/>
-      <c r="CC11" s="89"/>
-      <c r="CD11" s="89"/>
-      <c r="CE11" s="89"/>
-      <c r="CF11" s="89"/>
-      <c r="CG11" s="90"/>
-      <c r="CH11" s="88">
+      <c r="CB11" s="88"/>
+      <c r="CC11" s="88"/>
+      <c r="CD11" s="88"/>
+      <c r="CE11" s="88"/>
+      <c r="CF11" s="88"/>
+      <c r="CG11" s="89"/>
+      <c r="CH11" s="87">
         <f>YEAR(CH6)</f>
         <v>2016</v>
       </c>
-      <c r="CI11" s="89"/>
-      <c r="CJ11" s="89"/>
-      <c r="CK11" s="89"/>
-      <c r="CL11" s="89"/>
-      <c r="CM11" s="89"/>
-      <c r="CN11" s="90"/>
-      <c r="CO11" s="88">
+      <c r="CI11" s="88"/>
+      <c r="CJ11" s="88"/>
+      <c r="CK11" s="88"/>
+      <c r="CL11" s="88"/>
+      <c r="CM11" s="88"/>
+      <c r="CN11" s="89"/>
+      <c r="CO11" s="87">
         <f>YEAR(CO6)</f>
         <v>2016</v>
       </c>
-      <c r="CP11" s="89"/>
-      <c r="CQ11" s="89"/>
-      <c r="CR11" s="89"/>
-      <c r="CS11" s="89"/>
-      <c r="CT11" s="89"/>
-      <c r="CU11" s="90"/>
-      <c r="CV11" s="88">
+      <c r="CP11" s="88"/>
+      <c r="CQ11" s="88"/>
+      <c r="CR11" s="88"/>
+      <c r="CS11" s="88"/>
+      <c r="CT11" s="88"/>
+      <c r="CU11" s="89"/>
+      <c r="CV11" s="87">
         <f>YEAR(CV6)</f>
         <v>2016</v>
       </c>
-      <c r="CW11" s="89"/>
-      <c r="CX11" s="89"/>
-      <c r="CY11" s="89"/>
-      <c r="CZ11" s="89"/>
-      <c r="DA11" s="89"/>
-      <c r="DB11" s="90"/>
-      <c r="DC11" s="88">
+      <c r="CW11" s="88"/>
+      <c r="CX11" s="88"/>
+      <c r="CY11" s="88"/>
+      <c r="CZ11" s="88"/>
+      <c r="DA11" s="88"/>
+      <c r="DB11" s="89"/>
+      <c r="DC11" s="87">
         <f>YEAR(DC6)</f>
         <v>2016</v>
       </c>
-      <c r="DD11" s="89"/>
-      <c r="DE11" s="89"/>
-      <c r="DF11" s="89"/>
-      <c r="DG11" s="89"/>
-      <c r="DH11" s="89"/>
-      <c r="DI11" s="90"/>
-      <c r="DJ11" s="88">
+      <c r="DD11" s="88"/>
+      <c r="DE11" s="88"/>
+      <c r="DF11" s="88"/>
+      <c r="DG11" s="88"/>
+      <c r="DH11" s="88"/>
+      <c r="DI11" s="89"/>
+      <c r="DJ11" s="87">
         <f>YEAR(DJ6)</f>
         <v>2016</v>
       </c>
-      <c r="DK11" s="89"/>
-      <c r="DL11" s="89"/>
-      <c r="DM11" s="89"/>
-      <c r="DN11" s="89"/>
-      <c r="DO11" s="89"/>
-      <c r="DP11" s="90"/>
-      <c r="DQ11" s="88">
+      <c r="DK11" s="88"/>
+      <c r="DL11" s="88"/>
+      <c r="DM11" s="88"/>
+      <c r="DN11" s="88"/>
+      <c r="DO11" s="88"/>
+      <c r="DP11" s="89"/>
+      <c r="DQ11" s="87">
         <f>YEAR(DQ6)</f>
         <v>2016</v>
       </c>
-      <c r="DR11" s="89"/>
-      <c r="DS11" s="89"/>
-      <c r="DT11" s="89"/>
-      <c r="DU11" s="89"/>
-      <c r="DV11" s="89"/>
-      <c r="DW11" s="90"/>
-      <c r="DX11" s="88">
+      <c r="DR11" s="88"/>
+      <c r="DS11" s="88"/>
+      <c r="DT11" s="88"/>
+      <c r="DU11" s="88"/>
+      <c r="DV11" s="88"/>
+      <c r="DW11" s="89"/>
+      <c r="DX11" s="87">
         <f>YEAR(DX6)</f>
         <v>2016</v>
       </c>
-      <c r="DY11" s="89"/>
-      <c r="DZ11" s="89"/>
-      <c r="EA11" s="89"/>
-      <c r="EB11" s="89"/>
-      <c r="EC11" s="89"/>
-      <c r="ED11" s="90"/>
-      <c r="EE11" s="88">
+      <c r="DY11" s="88"/>
+      <c r="DZ11" s="88"/>
+      <c r="EA11" s="88"/>
+      <c r="EB11" s="88"/>
+      <c r="EC11" s="88"/>
+      <c r="ED11" s="89"/>
+      <c r="EE11" s="87">
         <f>YEAR(EE6)</f>
         <v>2016</v>
       </c>
-      <c r="EF11" s="89"/>
-      <c r="EG11" s="89"/>
-      <c r="EH11" s="89"/>
-      <c r="EI11" s="89"/>
-      <c r="EJ11" s="89"/>
-      <c r="EK11" s="90"/>
-      <c r="EL11" s="88">
+      <c r="EF11" s="88"/>
+      <c r="EG11" s="88"/>
+      <c r="EH11" s="88"/>
+      <c r="EI11" s="88"/>
+      <c r="EJ11" s="88"/>
+      <c r="EK11" s="89"/>
+      <c r="EL11" s="87">
         <f>YEAR(EL6)</f>
         <v>2016</v>
       </c>
-      <c r="EM11" s="89"/>
-      <c r="EN11" s="89"/>
-      <c r="EO11" s="89"/>
-      <c r="EP11" s="89"/>
-      <c r="EQ11" s="89"/>
-      <c r="ER11" s="90"/>
-      <c r="ES11" s="88">
+      <c r="EM11" s="88"/>
+      <c r="EN11" s="88"/>
+      <c r="EO11" s="88"/>
+      <c r="EP11" s="88"/>
+      <c r="EQ11" s="88"/>
+      <c r="ER11" s="89"/>
+      <c r="ES11" s="87">
         <f>YEAR(ES6)</f>
         <v>2016</v>
       </c>
-      <c r="ET11" s="89"/>
-      <c r="EU11" s="89"/>
-      <c r="EV11" s="89"/>
-      <c r="EW11" s="89"/>
-      <c r="EX11" s="89"/>
-      <c r="EY11" s="90"/>
-      <c r="EZ11" s="88">
+      <c r="ET11" s="88"/>
+      <c r="EU11" s="88"/>
+      <c r="EV11" s="88"/>
+      <c r="EW11" s="88"/>
+      <c r="EX11" s="88"/>
+      <c r="EY11" s="89"/>
+      <c r="EZ11" s="87">
         <f>YEAR(EZ6)</f>
         <v>2016</v>
       </c>
-      <c r="FA11" s="89"/>
-      <c r="FB11" s="89"/>
-      <c r="FC11" s="89"/>
-      <c r="FD11" s="89"/>
-      <c r="FE11" s="89"/>
-      <c r="FF11" s="90"/>
-      <c r="FG11" s="88">
+      <c r="FA11" s="88"/>
+      <c r="FB11" s="88"/>
+      <c r="FC11" s="88"/>
+      <c r="FD11" s="88"/>
+      <c r="FE11" s="88"/>
+      <c r="FF11" s="89"/>
+      <c r="FG11" s="87">
         <f>YEAR(FG6)</f>
         <v>2016</v>
       </c>
-      <c r="FH11" s="89"/>
-      <c r="FI11" s="89"/>
-      <c r="FJ11" s="89"/>
-      <c r="FK11" s="89"/>
-      <c r="FL11" s="89"/>
-      <c r="FM11" s="90"/>
-      <c r="FN11" s="88">
+      <c r="FH11" s="88"/>
+      <c r="FI11" s="88"/>
+      <c r="FJ11" s="88"/>
+      <c r="FK11" s="88"/>
+      <c r="FL11" s="88"/>
+      <c r="FM11" s="89"/>
+      <c r="FN11" s="87">
         <f>YEAR(FN6)</f>
         <v>2016</v>
       </c>
-      <c r="FO11" s="89"/>
-      <c r="FP11" s="89"/>
-      <c r="FQ11" s="89"/>
-      <c r="FR11" s="89"/>
-      <c r="FS11" s="89"/>
-      <c r="FT11" s="90"/>
-      <c r="FU11" s="88">
+      <c r="FO11" s="88"/>
+      <c r="FP11" s="88"/>
+      <c r="FQ11" s="88"/>
+      <c r="FR11" s="88"/>
+      <c r="FS11" s="88"/>
+      <c r="FT11" s="89"/>
+      <c r="FU11" s="87">
         <f>YEAR(FU6)</f>
         <v>2016</v>
       </c>
-      <c r="FV11" s="89"/>
-      <c r="FW11" s="89"/>
-      <c r="FX11" s="89"/>
-      <c r="FY11" s="89"/>
-      <c r="FZ11" s="89"/>
-      <c r="GA11" s="90"/>
-      <c r="GB11" s="88">
+      <c r="FV11" s="88"/>
+      <c r="FW11" s="88"/>
+      <c r="FX11" s="88"/>
+      <c r="FY11" s="88"/>
+      <c r="FZ11" s="88"/>
+      <c r="GA11" s="89"/>
+      <c r="GB11" s="87">
         <f>YEAR(GB6)</f>
         <v>2016</v>
       </c>
-      <c r="GC11" s="89"/>
-      <c r="GD11" s="89"/>
-      <c r="GE11" s="89"/>
-      <c r="GF11" s="89"/>
-      <c r="GG11" s="89"/>
-      <c r="GH11" s="90"/>
-      <c r="GI11" s="88">
+      <c r="GC11" s="88"/>
+      <c r="GD11" s="88"/>
+      <c r="GE11" s="88"/>
+      <c r="GF11" s="88"/>
+      <c r="GG11" s="88"/>
+      <c r="GH11" s="89"/>
+      <c r="GI11" s="87">
         <f>YEAR(GI6)</f>
         <v>2016</v>
       </c>
-      <c r="GJ11" s="89"/>
-      <c r="GK11" s="89"/>
-      <c r="GL11" s="89"/>
-      <c r="GM11" s="89"/>
-      <c r="GN11" s="89"/>
-      <c r="GO11" s="90"/>
-      <c r="GP11" s="88">
+      <c r="GJ11" s="88"/>
+      <c r="GK11" s="88"/>
+      <c r="GL11" s="88"/>
+      <c r="GM11" s="88"/>
+      <c r="GN11" s="88"/>
+      <c r="GO11" s="89"/>
+      <c r="GP11" s="87">
         <f>YEAR(GP6)</f>
         <v>2016</v>
       </c>
-      <c r="GQ11" s="89"/>
-      <c r="GR11" s="89"/>
-      <c r="GS11" s="89"/>
-      <c r="GT11" s="89"/>
-      <c r="GU11" s="89"/>
-      <c r="GV11" s="90"/>
-      <c r="GW11" s="88">
+      <c r="GQ11" s="88"/>
+      <c r="GR11" s="88"/>
+      <c r="GS11" s="88"/>
+      <c r="GT11" s="88"/>
+      <c r="GU11" s="88"/>
+      <c r="GV11" s="89"/>
+      <c r="GW11" s="87">
         <f>YEAR(GW6)</f>
         <v>2016</v>
       </c>
-      <c r="GX11" s="89"/>
-      <c r="GY11" s="89"/>
-      <c r="GZ11" s="89"/>
-      <c r="HA11" s="89"/>
-      <c r="HB11" s="89"/>
-      <c r="HC11" s="90"/>
-      <c r="HD11" s="88">
+      <c r="GX11" s="88"/>
+      <c r="GY11" s="88"/>
+      <c r="GZ11" s="88"/>
+      <c r="HA11" s="88"/>
+      <c r="HB11" s="88"/>
+      <c r="HC11" s="89"/>
+      <c r="HD11" s="87">
         <f>YEAR(HD6)</f>
         <v>2016</v>
       </c>
-      <c r="HE11" s="89"/>
-      <c r="HF11" s="89"/>
-      <c r="HG11" s="89"/>
-      <c r="HH11" s="89"/>
-      <c r="HI11" s="89"/>
-      <c r="HJ11" s="90"/>
-      <c r="HK11" s="88">
+      <c r="HE11" s="88"/>
+      <c r="HF11" s="88"/>
+      <c r="HG11" s="88"/>
+      <c r="HH11" s="88"/>
+      <c r="HI11" s="88"/>
+      <c r="HJ11" s="89"/>
+      <c r="HK11" s="87">
         <f>YEAR(HK6)</f>
         <v>2016</v>
       </c>
-      <c r="HL11" s="89"/>
-      <c r="HM11" s="89"/>
-      <c r="HN11" s="89"/>
-      <c r="HO11" s="89"/>
-      <c r="HP11" s="89"/>
-      <c r="HQ11" s="90"/>
-      <c r="HR11" s="88">
+      <c r="HL11" s="88"/>
+      <c r="HM11" s="88"/>
+      <c r="HN11" s="88"/>
+      <c r="HO11" s="88"/>
+      <c r="HP11" s="88"/>
+      <c r="HQ11" s="89"/>
+      <c r="HR11" s="87">
         <f>YEAR(HR6)</f>
         <v>2016</v>
       </c>
-      <c r="HS11" s="89"/>
-      <c r="HT11" s="89"/>
-      <c r="HU11" s="89"/>
-      <c r="HV11" s="89"/>
-      <c r="HW11" s="89"/>
-      <c r="HX11" s="90"/>
-      <c r="HY11" s="88">
+      <c r="HS11" s="88"/>
+      <c r="HT11" s="88"/>
+      <c r="HU11" s="88"/>
+      <c r="HV11" s="88"/>
+      <c r="HW11" s="88"/>
+      <c r="HX11" s="89"/>
+      <c r="HY11" s="87">
         <f>YEAR(HY6)</f>
         <v>2016</v>
       </c>
-      <c r="HZ11" s="89"/>
-      <c r="IA11" s="89"/>
-      <c r="IB11" s="89"/>
-      <c r="IC11" s="89"/>
-      <c r="ID11" s="89"/>
-      <c r="IE11" s="90"/>
-      <c r="IF11" s="88">
+      <c r="HZ11" s="88"/>
+      <c r="IA11" s="88"/>
+      <c r="IB11" s="88"/>
+      <c r="IC11" s="88"/>
+      <c r="ID11" s="88"/>
+      <c r="IE11" s="89"/>
+      <c r="IF11" s="87">
         <f>YEAR(IF6)</f>
         <v>2016</v>
       </c>
-      <c r="IG11" s="89"/>
-      <c r="IH11" s="89"/>
-      <c r="II11" s="89"/>
-      <c r="IJ11" s="89"/>
-      <c r="IK11" s="89"/>
-      <c r="IL11" s="90"/>
-      <c r="IM11" s="88">
+      <c r="IG11" s="88"/>
+      <c r="IH11" s="88"/>
+      <c r="II11" s="88"/>
+      <c r="IJ11" s="88"/>
+      <c r="IK11" s="88"/>
+      <c r="IL11" s="89"/>
+      <c r="IM11" s="87">
         <f>YEAR(IM6)</f>
         <v>2016</v>
       </c>
-      <c r="IN11" s="89"/>
-      <c r="IO11" s="89"/>
-      <c r="IP11" s="89"/>
-      <c r="IQ11" s="89"/>
-      <c r="IR11" s="89"/>
-      <c r="IS11" s="90"/>
+      <c r="IN11" s="88"/>
+      <c r="IO11" s="88"/>
+      <c r="IP11" s="88"/>
+      <c r="IQ11" s="88"/>
+      <c r="IR11" s="88"/>
+      <c r="IS11" s="89"/>
     </row>
     <row r="12" spans="1:256" s="23" customFormat="1" ht="12">
       <c r="A12" s="67">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="I12" s="74" t="str">
         <f ca="1">IF(AND($F$6&lt;=H12,$F$6&gt;=G12),"V","")</f>
-        <v>V</v>
+        <v/>
       </c>
       <c r="J12" s="75">
         <f>MAX(H13:H15)-G12+1</f>
@@ -6514,15 +6514,15 @@
       </c>
       <c r="L12" s="77">
         <f t="shared" ref="L12:L15" si="9">ROUNDDOWN(N12*J12,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M12" s="76">
         <f t="shared" ref="M12:M15" si="10">J12-L12</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N12" s="78">
         <f>SUMPRODUCT(J13:J15,N13:N15)/SUM(J13:J15)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O12" s="79"/>
       <c r="P12" s="71"/>
@@ -7081,14 +7081,14 @@
       </c>
       <c r="L14" s="22">
         <f t="shared" ref="L14" si="15">ROUNDDOWN(N14*J14,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="21">
         <f t="shared" ref="M14" si="16">J14-L14</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="19">
         <v>1</v>
-      </c>
-      <c r="N14" s="19">
-        <v>0</v>
       </c>
       <c r="O14" s="35"/>
       <c r="P14" s="17"/>
@@ -7353,7 +7353,7 @@
       </c>
       <c r="I15" s="50" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>V</v>
+        <v/>
       </c>
       <c r="J15" s="18">
         <v>1</v>
@@ -7364,14 +7364,14 @@
       </c>
       <c r="L15" s="22">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="21">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="19">
         <v>1</v>
-      </c>
-      <c r="N15" s="19">
-        <v>0</v>
       </c>
       <c r="O15" s="35"/>
       <c r="P15" s="17"/>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="I16" s="74" t="str">
         <f ca="1">IF(AND($F$6&lt;=H16,$F$6&gt;=G16),"V","")</f>
-        <v/>
+        <v>V</v>
       </c>
       <c r="J16" s="75">
         <f ca="1">MAX(H17:I24)-G16+1</f>
@@ -7919,7 +7919,7 @@
       </c>
       <c r="I17" s="61" t="str">
         <f t="shared" ref="I17" ca="1" si="23">IF(AND($F$6&lt;=H17,$F$6&gt;=G17),"V","")</f>
-        <v/>
+        <v>V</v>
       </c>
       <c r="J17" s="62">
         <v>5</v>
@@ -18656,6 +18656,97 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1"/>
   <autoFilter ref="A11:N15"/>
   <mergeCells count="115">
+    <mergeCell ref="HK10:HQ10"/>
+    <mergeCell ref="FG10:FM10"/>
+    <mergeCell ref="IM9:IS9"/>
+    <mergeCell ref="GW9:HC9"/>
+    <mergeCell ref="AR11:AX11"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="AK9:AQ9"/>
+    <mergeCell ref="AD11:AJ11"/>
+    <mergeCell ref="AK11:AQ11"/>
+    <mergeCell ref="P9:V9"/>
+    <mergeCell ref="W9:AC9"/>
+    <mergeCell ref="AD9:AJ9"/>
+    <mergeCell ref="AR9:AX9"/>
+    <mergeCell ref="IM10:IS10"/>
+    <mergeCell ref="FU10:GA10"/>
+    <mergeCell ref="GB10:GH10"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="W10:AC10"/>
+    <mergeCell ref="AD10:AJ10"/>
+    <mergeCell ref="AK10:AQ10"/>
+    <mergeCell ref="AR10:AX10"/>
+    <mergeCell ref="DC10:DI10"/>
+    <mergeCell ref="DJ10:DP10"/>
+    <mergeCell ref="IF10:IL10"/>
+    <mergeCell ref="CA9:CG9"/>
+    <mergeCell ref="CH10:CN10"/>
+    <mergeCell ref="CO10:CU10"/>
+    <mergeCell ref="AY9:BE9"/>
+    <mergeCell ref="CV9:DB9"/>
+    <mergeCell ref="CH9:CN9"/>
+    <mergeCell ref="CA11:CG11"/>
+    <mergeCell ref="IM11:IS11"/>
+    <mergeCell ref="GW11:HC11"/>
+    <mergeCell ref="HD11:HJ11"/>
+    <mergeCell ref="HK11:HQ11"/>
+    <mergeCell ref="HR11:HX11"/>
+    <mergeCell ref="HY11:IE11"/>
+    <mergeCell ref="CA10:CG10"/>
+    <mergeCell ref="IF11:IL11"/>
+    <mergeCell ref="EZ10:FF10"/>
+    <mergeCell ref="CH11:CN11"/>
+    <mergeCell ref="CO11:CU11"/>
+    <mergeCell ref="HY10:IE10"/>
+    <mergeCell ref="HR10:HX10"/>
+    <mergeCell ref="GP11:GV11"/>
+    <mergeCell ref="ES10:EY10"/>
+    <mergeCell ref="CV10:DB10"/>
+    <mergeCell ref="EE10:EK10"/>
+    <mergeCell ref="HD9:HJ9"/>
+    <mergeCell ref="CO9:CU9"/>
+    <mergeCell ref="GI9:GO9"/>
+    <mergeCell ref="EE9:EK9"/>
+    <mergeCell ref="EZ9:FF9"/>
+    <mergeCell ref="FU9:GA9"/>
+    <mergeCell ref="GB9:GH9"/>
+    <mergeCell ref="DJ11:DP11"/>
+    <mergeCell ref="EE11:EK11"/>
+    <mergeCell ref="EL11:ER11"/>
+    <mergeCell ref="ES11:EY11"/>
+    <mergeCell ref="EZ11:FF11"/>
+    <mergeCell ref="EL10:ER10"/>
+    <mergeCell ref="GI10:GO10"/>
+    <mergeCell ref="GP10:GV10"/>
+    <mergeCell ref="GW10:HC10"/>
+    <mergeCell ref="HD10:HJ10"/>
+    <mergeCell ref="DQ10:DW10"/>
+    <mergeCell ref="DX10:ED10"/>
+    <mergeCell ref="HK9:HQ9"/>
+    <mergeCell ref="HR9:HX9"/>
+    <mergeCell ref="IF9:IL9"/>
+    <mergeCell ref="HY9:IE9"/>
+    <mergeCell ref="FN9:FT9"/>
+    <mergeCell ref="AY11:BE11"/>
+    <mergeCell ref="BF9:BL9"/>
+    <mergeCell ref="CV11:DB11"/>
+    <mergeCell ref="BF11:BL11"/>
+    <mergeCell ref="BF10:BL10"/>
+    <mergeCell ref="BM10:BS10"/>
+    <mergeCell ref="BT10:BZ10"/>
+    <mergeCell ref="AY10:BE10"/>
+    <mergeCell ref="BM9:BS9"/>
+    <mergeCell ref="BM11:BS11"/>
+    <mergeCell ref="FG9:FM9"/>
+    <mergeCell ref="EL9:ER9"/>
+    <mergeCell ref="ES9:EY9"/>
+    <mergeCell ref="BT9:BZ9"/>
+    <mergeCell ref="DX9:ED9"/>
+    <mergeCell ref="DJ9:DP9"/>
+    <mergeCell ref="DC9:DI9"/>
+    <mergeCell ref="DQ9:DW9"/>
+    <mergeCell ref="GP9:GV9"/>
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="M5:M11"/>
@@ -18680,97 +18771,6 @@
     <mergeCell ref="W11:AC11"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="N9:N11"/>
-    <mergeCell ref="HK9:HQ9"/>
-    <mergeCell ref="HR9:HX9"/>
-    <mergeCell ref="IF9:IL9"/>
-    <mergeCell ref="HY9:IE9"/>
-    <mergeCell ref="FN9:FT9"/>
-    <mergeCell ref="AY11:BE11"/>
-    <mergeCell ref="BF9:BL9"/>
-    <mergeCell ref="CV11:DB11"/>
-    <mergeCell ref="BF11:BL11"/>
-    <mergeCell ref="BF10:BL10"/>
-    <mergeCell ref="BM10:BS10"/>
-    <mergeCell ref="BT10:BZ10"/>
-    <mergeCell ref="AY10:BE10"/>
-    <mergeCell ref="BM9:BS9"/>
-    <mergeCell ref="BM11:BS11"/>
-    <mergeCell ref="FG9:FM9"/>
-    <mergeCell ref="EL9:ER9"/>
-    <mergeCell ref="ES9:EY9"/>
-    <mergeCell ref="BT9:BZ9"/>
-    <mergeCell ref="DX9:ED9"/>
-    <mergeCell ref="DJ9:DP9"/>
-    <mergeCell ref="DC9:DI9"/>
-    <mergeCell ref="DQ9:DW9"/>
-    <mergeCell ref="GP9:GV9"/>
-    <mergeCell ref="HD9:HJ9"/>
-    <mergeCell ref="CO9:CU9"/>
-    <mergeCell ref="GI9:GO9"/>
-    <mergeCell ref="EE9:EK9"/>
-    <mergeCell ref="EZ9:FF9"/>
-    <mergeCell ref="FU9:GA9"/>
-    <mergeCell ref="GB9:GH9"/>
-    <mergeCell ref="DJ11:DP11"/>
-    <mergeCell ref="EE11:EK11"/>
-    <mergeCell ref="EL11:ER11"/>
-    <mergeCell ref="ES11:EY11"/>
-    <mergeCell ref="EZ11:FF11"/>
-    <mergeCell ref="EL10:ER10"/>
-    <mergeCell ref="GI10:GO10"/>
-    <mergeCell ref="GP10:GV10"/>
-    <mergeCell ref="GW10:HC10"/>
-    <mergeCell ref="HD10:HJ10"/>
-    <mergeCell ref="DQ10:DW10"/>
-    <mergeCell ref="DX10:ED10"/>
-    <mergeCell ref="CA9:CG9"/>
-    <mergeCell ref="CH10:CN10"/>
-    <mergeCell ref="CO10:CU10"/>
-    <mergeCell ref="AY9:BE9"/>
-    <mergeCell ref="CV9:DB9"/>
-    <mergeCell ref="CH9:CN9"/>
-    <mergeCell ref="CA11:CG11"/>
-    <mergeCell ref="IM11:IS11"/>
-    <mergeCell ref="GW11:HC11"/>
-    <mergeCell ref="HD11:HJ11"/>
-    <mergeCell ref="HK11:HQ11"/>
-    <mergeCell ref="HR11:HX11"/>
-    <mergeCell ref="HY11:IE11"/>
-    <mergeCell ref="CA10:CG10"/>
-    <mergeCell ref="IF11:IL11"/>
-    <mergeCell ref="EZ10:FF10"/>
-    <mergeCell ref="CH11:CN11"/>
-    <mergeCell ref="CO11:CU11"/>
-    <mergeCell ref="HY10:IE10"/>
-    <mergeCell ref="HR10:HX10"/>
-    <mergeCell ref="GP11:GV11"/>
-    <mergeCell ref="ES10:EY10"/>
-    <mergeCell ref="CV10:DB10"/>
-    <mergeCell ref="EE10:EK10"/>
-    <mergeCell ref="HK10:HQ10"/>
-    <mergeCell ref="FG10:FM10"/>
-    <mergeCell ref="IM9:IS9"/>
-    <mergeCell ref="GW9:HC9"/>
-    <mergeCell ref="AR11:AX11"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="AK9:AQ9"/>
-    <mergeCell ref="AD11:AJ11"/>
-    <mergeCell ref="AK11:AQ11"/>
-    <mergeCell ref="P9:V9"/>
-    <mergeCell ref="W9:AC9"/>
-    <mergeCell ref="AD9:AJ9"/>
-    <mergeCell ref="AR9:AX9"/>
-    <mergeCell ref="IM10:IS10"/>
-    <mergeCell ref="FU10:GA10"/>
-    <mergeCell ref="GB10:GH10"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="W10:AC10"/>
-    <mergeCell ref="AD10:AJ10"/>
-    <mergeCell ref="AK10:AQ10"/>
-    <mergeCell ref="AR10:AX10"/>
-    <mergeCell ref="DC10:DI10"/>
-    <mergeCell ref="DJ10:DP10"/>
-    <mergeCell ref="IF10:IL10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B12:B13 B15">

--- a/Deliverables/1-Timeline/Sandipan-Timeplan.xlsx
+++ b/Deliverables/1-Timeline/Sandipan-Timeplan.xlsx
@@ -171,9 +171,6 @@
     <t>Setup Latex environment</t>
   </si>
   <si>
-    <t>MEMS tunable polarization rotator for optical networks  - Timeplan</t>
-  </si>
-  <si>
     <t>Polarization in optical waveguides</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>Optimize Design</t>
+  </si>
+  <si>
+    <t>MEMS tunable polarization rotator for optical communication  - Timeplan</t>
   </si>
 </sst>
 </file>
@@ -868,6 +868,39 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -886,24 +919,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -921,21 +936,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3077,10 +3077,10 @@
   <dimension ref="A1:IV54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="11" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="11" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
+      <selection pane="bottomRight" sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -3106,38 +3106,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="15.75" customHeight="1">
-      <c r="A1" s="82" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
+      <c r="A1" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
     </row>
     <row r="2" spans="1:256" s="10" customFormat="1" ht="23.25" customHeight="1" collapsed="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
       <c r="O2" s="48">
         <v>0</v>
       </c>
@@ -3155,8 +3155,8 @@
       </c>
     </row>
     <row r="4" spans="1:256" s="7" customFormat="1" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
@@ -3183,23 +3183,23 @@
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="86">
+      <c r="F5" s="97">
         <v>42387</v>
       </c>
-      <c r="G5" s="86"/>
+      <c r="G5" s="97"/>
       <c r="H5" s="5" t="str">
         <f>TEXT(F5,"dddd")</f>
         <v>Monday</v>
       </c>
       <c r="I5" s="51"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="84" t="s">
+      <c r="K5" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="84" t="s">
+      <c r="L5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="84" t="s">
+      <c r="M5" s="95" t="s">
         <v>13</v>
       </c>
       <c r="N5" s="11"/>
@@ -3214,20 +3214,20 @@
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="86">
+      <c r="F6" s="97">
         <f ca="1">TODAY()</f>
         <v>42390</v>
       </c>
-      <c r="G6" s="86"/>
+      <c r="G6" s="97"/>
       <c r="H6" s="5" t="str">
         <f ca="1">TEXT(F6,"dddd")</f>
         <v>Thursday</v>
       </c>
       <c r="I6" s="51"/>
       <c r="J6" s="43"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="44"/>
       <c r="O6" s="47"/>
       <c r="P6" s="41">
@@ -4190,9 +4190,9 @@
       </c>
       <c r="I7" s="49"/>
       <c r="J7" s="45"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="46"/>
       <c r="P7" s="14">
         <f t="shared" ref="P7:CA7" si="4">TRUNC((P6-DATE(YEAR(P6),1,1)+WEEKDAY(DATE(YEAR(P6),1,1))-1)/7)+1</f>
@@ -5152,9 +5152,9 @@
       <c r="F8" s="4"/>
       <c r="I8" s="49"/>
       <c r="J8" s="45"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
       <c r="N8" s="46"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
@@ -5398,732 +5398,732 @@
     </row>
     <row r="9" spans="1:256" s="9" customFormat="1" ht="29.25" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="93" t="s">
+      <c r="E9" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="95" t="s">
+      <c r="I9" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="84" t="s">
+      <c r="J9" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84" t="s">
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95" t="s">
         <v>8</v>
       </c>
       <c r="O9" s="42"/>
-      <c r="P9" s="99">
+      <c r="P9" s="85">
         <f>P6</f>
         <v>42386</v>
       </c>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="100"/>
-      <c r="T9" s="100"/>
-      <c r="U9" s="100"/>
-      <c r="V9" s="101"/>
-      <c r="W9" s="99">
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="86"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="85">
         <f>W6</f>
         <v>42393</v>
       </c>
-      <c r="X9" s="100"/>
-      <c r="Y9" s="100"/>
-      <c r="Z9" s="100"/>
-      <c r="AA9" s="100"/>
-      <c r="AB9" s="100"/>
-      <c r="AC9" s="101"/>
-      <c r="AD9" s="99">
+      <c r="X9" s="86"/>
+      <c r="Y9" s="86"/>
+      <c r="Z9" s="86"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="87"/>
+      <c r="AD9" s="85">
         <f>AD6</f>
         <v>42400</v>
       </c>
-      <c r="AE9" s="100"/>
-      <c r="AF9" s="100"/>
-      <c r="AG9" s="100"/>
-      <c r="AH9" s="100"/>
-      <c r="AI9" s="100"/>
-      <c r="AJ9" s="101"/>
-      <c r="AK9" s="99">
+      <c r="AE9" s="86"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="86"/>
+      <c r="AJ9" s="87"/>
+      <c r="AK9" s="85">
         <f>AK6</f>
         <v>42407</v>
       </c>
-      <c r="AL9" s="100"/>
-      <c r="AM9" s="100"/>
-      <c r="AN9" s="100"/>
-      <c r="AO9" s="100"/>
-      <c r="AP9" s="100"/>
-      <c r="AQ9" s="101"/>
-      <c r="AR9" s="99">
+      <c r="AL9" s="86"/>
+      <c r="AM9" s="86"/>
+      <c r="AN9" s="86"/>
+      <c r="AO9" s="86"/>
+      <c r="AP9" s="86"/>
+      <c r="AQ9" s="87"/>
+      <c r="AR9" s="85">
         <f>AR6</f>
         <v>42414</v>
       </c>
-      <c r="AS9" s="100"/>
-      <c r="AT9" s="100"/>
-      <c r="AU9" s="100"/>
-      <c r="AV9" s="100"/>
-      <c r="AW9" s="100"/>
-      <c r="AX9" s="101"/>
-      <c r="AY9" s="99">
+      <c r="AS9" s="86"/>
+      <c r="AT9" s="86"/>
+      <c r="AU9" s="86"/>
+      <c r="AV9" s="86"/>
+      <c r="AW9" s="86"/>
+      <c r="AX9" s="87"/>
+      <c r="AY9" s="85">
         <f>AY6</f>
         <v>42421</v>
       </c>
-      <c r="AZ9" s="100"/>
-      <c r="BA9" s="100"/>
-      <c r="BB9" s="100"/>
-      <c r="BC9" s="100"/>
-      <c r="BD9" s="100"/>
-      <c r="BE9" s="101"/>
-      <c r="BF9" s="99">
+      <c r="AZ9" s="86"/>
+      <c r="BA9" s="86"/>
+      <c r="BB9" s="86"/>
+      <c r="BC9" s="86"/>
+      <c r="BD9" s="86"/>
+      <c r="BE9" s="87"/>
+      <c r="BF9" s="85">
         <f>BF6</f>
         <v>42428</v>
       </c>
-      <c r="BG9" s="100"/>
-      <c r="BH9" s="100"/>
-      <c r="BI9" s="100"/>
-      <c r="BJ9" s="100"/>
-      <c r="BK9" s="100"/>
-      <c r="BL9" s="101"/>
-      <c r="BM9" s="99">
+      <c r="BG9" s="86"/>
+      <c r="BH9" s="86"/>
+      <c r="BI9" s="86"/>
+      <c r="BJ9" s="86"/>
+      <c r="BK9" s="86"/>
+      <c r="BL9" s="87"/>
+      <c r="BM9" s="85">
         <f>BM6</f>
         <v>42435</v>
       </c>
-      <c r="BN9" s="100"/>
-      <c r="BO9" s="100"/>
-      <c r="BP9" s="100"/>
-      <c r="BQ9" s="100"/>
-      <c r="BR9" s="100"/>
-      <c r="BS9" s="101"/>
-      <c r="BT9" s="99">
+      <c r="BN9" s="86"/>
+      <c r="BO9" s="86"/>
+      <c r="BP9" s="86"/>
+      <c r="BQ9" s="86"/>
+      <c r="BR9" s="86"/>
+      <c r="BS9" s="87"/>
+      <c r="BT9" s="85">
         <f>BT6</f>
         <v>42442</v>
       </c>
-      <c r="BU9" s="100"/>
-      <c r="BV9" s="100"/>
-      <c r="BW9" s="100"/>
-      <c r="BX9" s="100"/>
-      <c r="BY9" s="100"/>
-      <c r="BZ9" s="101"/>
-      <c r="CA9" s="99">
+      <c r="BU9" s="86"/>
+      <c r="BV9" s="86"/>
+      <c r="BW9" s="86"/>
+      <c r="BX9" s="86"/>
+      <c r="BY9" s="86"/>
+      <c r="BZ9" s="87"/>
+      <c r="CA9" s="85">
         <f>CA6</f>
         <v>42449</v>
       </c>
-      <c r="CB9" s="100"/>
-      <c r="CC9" s="100"/>
-      <c r="CD9" s="100"/>
-      <c r="CE9" s="100"/>
-      <c r="CF9" s="100"/>
-      <c r="CG9" s="101"/>
-      <c r="CH9" s="99">
+      <c r="CB9" s="86"/>
+      <c r="CC9" s="86"/>
+      <c r="CD9" s="86"/>
+      <c r="CE9" s="86"/>
+      <c r="CF9" s="86"/>
+      <c r="CG9" s="87"/>
+      <c r="CH9" s="85">
         <f>CH6</f>
         <v>42456</v>
       </c>
-      <c r="CI9" s="100"/>
-      <c r="CJ9" s="100"/>
-      <c r="CK9" s="100"/>
-      <c r="CL9" s="100"/>
-      <c r="CM9" s="100"/>
-      <c r="CN9" s="101"/>
-      <c r="CO9" s="99">
+      <c r="CI9" s="86"/>
+      <c r="CJ9" s="86"/>
+      <c r="CK9" s="86"/>
+      <c r="CL9" s="86"/>
+      <c r="CM9" s="86"/>
+      <c r="CN9" s="87"/>
+      <c r="CO9" s="85">
         <f>CO6</f>
         <v>42463</v>
       </c>
-      <c r="CP9" s="100"/>
-      <c r="CQ9" s="100"/>
-      <c r="CR9" s="100"/>
-      <c r="CS9" s="100"/>
-      <c r="CT9" s="100"/>
-      <c r="CU9" s="101"/>
-      <c r="CV9" s="99">
+      <c r="CP9" s="86"/>
+      <c r="CQ9" s="86"/>
+      <c r="CR9" s="86"/>
+      <c r="CS9" s="86"/>
+      <c r="CT9" s="86"/>
+      <c r="CU9" s="87"/>
+      <c r="CV9" s="85">
         <f>CV6</f>
         <v>42470</v>
       </c>
-      <c r="CW9" s="100"/>
-      <c r="CX9" s="100"/>
-      <c r="CY9" s="100"/>
-      <c r="CZ9" s="100"/>
-      <c r="DA9" s="100"/>
-      <c r="DB9" s="101"/>
-      <c r="DC9" s="99">
+      <c r="CW9" s="86"/>
+      <c r="CX9" s="86"/>
+      <c r="CY9" s="86"/>
+      <c r="CZ9" s="86"/>
+      <c r="DA9" s="86"/>
+      <c r="DB9" s="87"/>
+      <c r="DC9" s="85">
         <f>DC6</f>
         <v>42477</v>
       </c>
-      <c r="DD9" s="100"/>
-      <c r="DE9" s="100"/>
-      <c r="DF9" s="100"/>
-      <c r="DG9" s="100"/>
-      <c r="DH9" s="100"/>
-      <c r="DI9" s="101"/>
-      <c r="DJ9" s="99">
+      <c r="DD9" s="86"/>
+      <c r="DE9" s="86"/>
+      <c r="DF9" s="86"/>
+      <c r="DG9" s="86"/>
+      <c r="DH9" s="86"/>
+      <c r="DI9" s="87"/>
+      <c r="DJ9" s="85">
         <f>DJ6</f>
         <v>42484</v>
       </c>
-      <c r="DK9" s="100"/>
-      <c r="DL9" s="100"/>
-      <c r="DM9" s="100"/>
-      <c r="DN9" s="100"/>
-      <c r="DO9" s="100"/>
-      <c r="DP9" s="101"/>
-      <c r="DQ9" s="99">
+      <c r="DK9" s="86"/>
+      <c r="DL9" s="86"/>
+      <c r="DM9" s="86"/>
+      <c r="DN9" s="86"/>
+      <c r="DO9" s="86"/>
+      <c r="DP9" s="87"/>
+      <c r="DQ9" s="85">
         <f>DQ6</f>
         <v>42491</v>
       </c>
-      <c r="DR9" s="100"/>
-      <c r="DS9" s="100"/>
-      <c r="DT9" s="100"/>
-      <c r="DU9" s="100"/>
-      <c r="DV9" s="100"/>
-      <c r="DW9" s="101"/>
-      <c r="DX9" s="99">
+      <c r="DR9" s="86"/>
+      <c r="DS9" s="86"/>
+      <c r="DT9" s="86"/>
+      <c r="DU9" s="86"/>
+      <c r="DV9" s="86"/>
+      <c r="DW9" s="87"/>
+      <c r="DX9" s="85">
         <f>DX6</f>
         <v>42498</v>
       </c>
-      <c r="DY9" s="100"/>
-      <c r="DZ9" s="100"/>
-      <c r="EA9" s="100"/>
-      <c r="EB9" s="100"/>
-      <c r="EC9" s="100"/>
-      <c r="ED9" s="101"/>
-      <c r="EE9" s="99">
+      <c r="DY9" s="86"/>
+      <c r="DZ9" s="86"/>
+      <c r="EA9" s="86"/>
+      <c r="EB9" s="86"/>
+      <c r="EC9" s="86"/>
+      <c r="ED9" s="87"/>
+      <c r="EE9" s="85">
         <f>EE6</f>
         <v>42505</v>
       </c>
-      <c r="EF9" s="100"/>
-      <c r="EG9" s="100"/>
-      <c r="EH9" s="100"/>
-      <c r="EI9" s="100"/>
-      <c r="EJ9" s="100"/>
-      <c r="EK9" s="101"/>
-      <c r="EL9" s="99">
+      <c r="EF9" s="86"/>
+      <c r="EG9" s="86"/>
+      <c r="EH9" s="86"/>
+      <c r="EI9" s="86"/>
+      <c r="EJ9" s="86"/>
+      <c r="EK9" s="87"/>
+      <c r="EL9" s="85">
         <f>EL6</f>
         <v>42512</v>
       </c>
-      <c r="EM9" s="100"/>
-      <c r="EN9" s="100"/>
-      <c r="EO9" s="100"/>
-      <c r="EP9" s="100"/>
-      <c r="EQ9" s="100"/>
-      <c r="ER9" s="101"/>
-      <c r="ES9" s="99">
+      <c r="EM9" s="86"/>
+      <c r="EN9" s="86"/>
+      <c r="EO9" s="86"/>
+      <c r="EP9" s="86"/>
+      <c r="EQ9" s="86"/>
+      <c r="ER9" s="87"/>
+      <c r="ES9" s="85">
         <f>ES6</f>
         <v>42519</v>
       </c>
-      <c r="ET9" s="100"/>
-      <c r="EU9" s="100"/>
-      <c r="EV9" s="100"/>
-      <c r="EW9" s="100"/>
-      <c r="EX9" s="100"/>
-      <c r="EY9" s="101"/>
-      <c r="EZ9" s="99">
+      <c r="ET9" s="86"/>
+      <c r="EU9" s="86"/>
+      <c r="EV9" s="86"/>
+      <c r="EW9" s="86"/>
+      <c r="EX9" s="86"/>
+      <c r="EY9" s="87"/>
+      <c r="EZ9" s="85">
         <f>EZ6</f>
         <v>42526</v>
       </c>
-      <c r="FA9" s="100"/>
-      <c r="FB9" s="100"/>
-      <c r="FC9" s="100"/>
-      <c r="FD9" s="100"/>
-      <c r="FE9" s="100"/>
-      <c r="FF9" s="101"/>
-      <c r="FG9" s="99">
+      <c r="FA9" s="86"/>
+      <c r="FB9" s="86"/>
+      <c r="FC9" s="86"/>
+      <c r="FD9" s="86"/>
+      <c r="FE9" s="86"/>
+      <c r="FF9" s="87"/>
+      <c r="FG9" s="85">
         <f>FG6</f>
         <v>42533</v>
       </c>
-      <c r="FH9" s="100"/>
-      <c r="FI9" s="100"/>
-      <c r="FJ9" s="100"/>
-      <c r="FK9" s="100"/>
-      <c r="FL9" s="100"/>
-      <c r="FM9" s="101"/>
-      <c r="FN9" s="99">
+      <c r="FH9" s="86"/>
+      <c r="FI9" s="86"/>
+      <c r="FJ9" s="86"/>
+      <c r="FK9" s="86"/>
+      <c r="FL9" s="86"/>
+      <c r="FM9" s="87"/>
+      <c r="FN9" s="85">
         <f>FN6</f>
         <v>42540</v>
       </c>
-      <c r="FO9" s="100"/>
-      <c r="FP9" s="100"/>
-      <c r="FQ9" s="100"/>
-      <c r="FR9" s="100"/>
-      <c r="FS9" s="100"/>
-      <c r="FT9" s="101"/>
-      <c r="FU9" s="99">
+      <c r="FO9" s="86"/>
+      <c r="FP9" s="86"/>
+      <c r="FQ9" s="86"/>
+      <c r="FR9" s="86"/>
+      <c r="FS9" s="86"/>
+      <c r="FT9" s="87"/>
+      <c r="FU9" s="85">
         <f>FU6</f>
         <v>42547</v>
       </c>
-      <c r="FV9" s="100"/>
-      <c r="FW9" s="100"/>
-      <c r="FX9" s="100"/>
-      <c r="FY9" s="100"/>
-      <c r="FZ9" s="100"/>
-      <c r="GA9" s="101"/>
-      <c r="GB9" s="99">
+      <c r="FV9" s="86"/>
+      <c r="FW9" s="86"/>
+      <c r="FX9" s="86"/>
+      <c r="FY9" s="86"/>
+      <c r="FZ9" s="86"/>
+      <c r="GA9" s="87"/>
+      <c r="GB9" s="85">
         <f>GB6</f>
         <v>42554</v>
       </c>
-      <c r="GC9" s="100"/>
-      <c r="GD9" s="100"/>
-      <c r="GE9" s="100"/>
-      <c r="GF9" s="100"/>
-      <c r="GG9" s="100"/>
-      <c r="GH9" s="101"/>
-      <c r="GI9" s="99">
+      <c r="GC9" s="86"/>
+      <c r="GD9" s="86"/>
+      <c r="GE9" s="86"/>
+      <c r="GF9" s="86"/>
+      <c r="GG9" s="86"/>
+      <c r="GH9" s="87"/>
+      <c r="GI9" s="85">
         <f>GI6</f>
         <v>42561</v>
       </c>
-      <c r="GJ9" s="100"/>
-      <c r="GK9" s="100"/>
-      <c r="GL9" s="100"/>
-      <c r="GM9" s="100"/>
-      <c r="GN9" s="100"/>
-      <c r="GO9" s="101"/>
-      <c r="GP9" s="99">
+      <c r="GJ9" s="86"/>
+      <c r="GK9" s="86"/>
+      <c r="GL9" s="86"/>
+      <c r="GM9" s="86"/>
+      <c r="GN9" s="86"/>
+      <c r="GO9" s="87"/>
+      <c r="GP9" s="85">
         <f>GP6</f>
         <v>42568</v>
       </c>
-      <c r="GQ9" s="100"/>
-      <c r="GR9" s="100"/>
-      <c r="GS9" s="100"/>
-      <c r="GT9" s="100"/>
-      <c r="GU9" s="100"/>
-      <c r="GV9" s="101"/>
-      <c r="GW9" s="99">
+      <c r="GQ9" s="86"/>
+      <c r="GR9" s="86"/>
+      <c r="GS9" s="86"/>
+      <c r="GT9" s="86"/>
+      <c r="GU9" s="86"/>
+      <c r="GV9" s="87"/>
+      <c r="GW9" s="85">
         <f>GW6</f>
         <v>42575</v>
       </c>
-      <c r="GX9" s="100"/>
-      <c r="GY9" s="100"/>
-      <c r="GZ9" s="100"/>
-      <c r="HA9" s="100"/>
-      <c r="HB9" s="100"/>
-      <c r="HC9" s="101"/>
-      <c r="HD9" s="99">
+      <c r="GX9" s="86"/>
+      <c r="GY9" s="86"/>
+      <c r="GZ9" s="86"/>
+      <c r="HA9" s="86"/>
+      <c r="HB9" s="86"/>
+      <c r="HC9" s="87"/>
+      <c r="HD9" s="85">
         <f>HD6</f>
         <v>42582</v>
       </c>
-      <c r="HE9" s="100"/>
-      <c r="HF9" s="100"/>
-      <c r="HG9" s="100"/>
-      <c r="HH9" s="100"/>
-      <c r="HI9" s="100"/>
-      <c r="HJ9" s="101"/>
-      <c r="HK9" s="99">
+      <c r="HE9" s="86"/>
+      <c r="HF9" s="86"/>
+      <c r="HG9" s="86"/>
+      <c r="HH9" s="86"/>
+      <c r="HI9" s="86"/>
+      <c r="HJ9" s="87"/>
+      <c r="HK9" s="85">
         <f>HK6</f>
         <v>42589</v>
       </c>
-      <c r="HL9" s="100"/>
-      <c r="HM9" s="100"/>
-      <c r="HN9" s="100"/>
-      <c r="HO9" s="100"/>
-      <c r="HP9" s="100"/>
-      <c r="HQ9" s="101"/>
-      <c r="HR9" s="99">
+      <c r="HL9" s="86"/>
+      <c r="HM9" s="86"/>
+      <c r="HN9" s="86"/>
+      <c r="HO9" s="86"/>
+      <c r="HP9" s="86"/>
+      <c r="HQ9" s="87"/>
+      <c r="HR9" s="85">
         <f>HR6</f>
         <v>42596</v>
       </c>
-      <c r="HS9" s="100"/>
-      <c r="HT9" s="100"/>
-      <c r="HU9" s="100"/>
-      <c r="HV9" s="100"/>
-      <c r="HW9" s="100"/>
-      <c r="HX9" s="101"/>
-      <c r="HY9" s="99">
+      <c r="HS9" s="86"/>
+      <c r="HT9" s="86"/>
+      <c r="HU9" s="86"/>
+      <c r="HV9" s="86"/>
+      <c r="HW9" s="86"/>
+      <c r="HX9" s="87"/>
+      <c r="HY9" s="85">
         <f>HY6</f>
         <v>42603</v>
       </c>
-      <c r="HZ9" s="100"/>
-      <c r="IA9" s="100"/>
-      <c r="IB9" s="100"/>
-      <c r="IC9" s="100"/>
-      <c r="ID9" s="100"/>
-      <c r="IE9" s="101"/>
-      <c r="IF9" s="99">
+      <c r="HZ9" s="86"/>
+      <c r="IA9" s="86"/>
+      <c r="IB9" s="86"/>
+      <c r="IC9" s="86"/>
+      <c r="ID9" s="86"/>
+      <c r="IE9" s="87"/>
+      <c r="IF9" s="85">
         <f>IF6</f>
         <v>42610</v>
       </c>
-      <c r="IG9" s="100"/>
-      <c r="IH9" s="100"/>
-      <c r="II9" s="100"/>
-      <c r="IJ9" s="100"/>
-      <c r="IK9" s="100"/>
-      <c r="IL9" s="101"/>
-      <c r="IM9" s="99">
+      <c r="IG9" s="86"/>
+      <c r="IH9" s="86"/>
+      <c r="II9" s="86"/>
+      <c r="IJ9" s="86"/>
+      <c r="IK9" s="86"/>
+      <c r="IL9" s="87"/>
+      <c r="IM9" s="85">
         <f>IM6</f>
         <v>42617</v>
       </c>
-      <c r="IN9" s="100"/>
-      <c r="IO9" s="100"/>
-      <c r="IP9" s="100"/>
-      <c r="IQ9" s="100"/>
-      <c r="IR9" s="100"/>
-      <c r="IS9" s="101"/>
+      <c r="IN9" s="86"/>
+      <c r="IO9" s="86"/>
+      <c r="IP9" s="86"/>
+      <c r="IQ9" s="86"/>
+      <c r="IR9" s="86"/>
+      <c r="IS9" s="87"/>
     </row>
     <row r="10" spans="1:256" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="97"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
+      <c r="B10" s="102"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
       <c r="O10" s="42"/>
-      <c r="P10" s="90">
+      <c r="P10" s="82">
         <f>P7</f>
         <v>4</v>
       </c>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="91"/>
-      <c r="U10" s="91"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="90">
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="83"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="82">
         <f>W7</f>
         <v>5</v>
       </c>
-      <c r="X10" s="91"/>
-      <c r="Y10" s="91"/>
-      <c r="Z10" s="91"/>
-      <c r="AA10" s="91"/>
-      <c r="AB10" s="91"/>
-      <c r="AC10" s="92"/>
-      <c r="AD10" s="90">
+      <c r="X10" s="83"/>
+      <c r="Y10" s="83"/>
+      <c r="Z10" s="83"/>
+      <c r="AA10" s="83"/>
+      <c r="AB10" s="83"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="82">
         <f>AD7</f>
         <v>6</v>
       </c>
-      <c r="AE10" s="91"/>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="91"/>
-      <c r="AH10" s="91"/>
-      <c r="AI10" s="91"/>
-      <c r="AJ10" s="92"/>
-      <c r="AK10" s="90">
+      <c r="AE10" s="83"/>
+      <c r="AF10" s="83"/>
+      <c r="AG10" s="83"/>
+      <c r="AH10" s="83"/>
+      <c r="AI10" s="83"/>
+      <c r="AJ10" s="84"/>
+      <c r="AK10" s="82">
         <f>AK7</f>
         <v>7</v>
       </c>
-      <c r="AL10" s="91"/>
-      <c r="AM10" s="91"/>
-      <c r="AN10" s="91"/>
-      <c r="AO10" s="91"/>
-      <c r="AP10" s="91"/>
-      <c r="AQ10" s="92"/>
-      <c r="AR10" s="90">
+      <c r="AL10" s="83"/>
+      <c r="AM10" s="83"/>
+      <c r="AN10" s="83"/>
+      <c r="AO10" s="83"/>
+      <c r="AP10" s="83"/>
+      <c r="AQ10" s="84"/>
+      <c r="AR10" s="82">
         <f>AR7</f>
         <v>8</v>
       </c>
-      <c r="AS10" s="91"/>
-      <c r="AT10" s="91"/>
-      <c r="AU10" s="91"/>
-      <c r="AV10" s="91"/>
-      <c r="AW10" s="91"/>
-      <c r="AX10" s="92"/>
-      <c r="AY10" s="90">
+      <c r="AS10" s="83"/>
+      <c r="AT10" s="83"/>
+      <c r="AU10" s="83"/>
+      <c r="AV10" s="83"/>
+      <c r="AW10" s="83"/>
+      <c r="AX10" s="84"/>
+      <c r="AY10" s="82">
         <f>AY7</f>
         <v>9</v>
       </c>
-      <c r="AZ10" s="91"/>
-      <c r="BA10" s="91"/>
-      <c r="BB10" s="91"/>
-      <c r="BC10" s="91"/>
-      <c r="BD10" s="91"/>
-      <c r="BE10" s="92"/>
-      <c r="BF10" s="90">
+      <c r="AZ10" s="83"/>
+      <c r="BA10" s="83"/>
+      <c r="BB10" s="83"/>
+      <c r="BC10" s="83"/>
+      <c r="BD10" s="83"/>
+      <c r="BE10" s="84"/>
+      <c r="BF10" s="82">
         <f>BF7</f>
         <v>10</v>
       </c>
-      <c r="BG10" s="91"/>
-      <c r="BH10" s="91"/>
-      <c r="BI10" s="91"/>
-      <c r="BJ10" s="91"/>
-      <c r="BK10" s="91"/>
-      <c r="BL10" s="92"/>
-      <c r="BM10" s="90">
+      <c r="BG10" s="83"/>
+      <c r="BH10" s="83"/>
+      <c r="BI10" s="83"/>
+      <c r="BJ10" s="83"/>
+      <c r="BK10" s="83"/>
+      <c r="BL10" s="84"/>
+      <c r="BM10" s="82">
         <f>BM7</f>
         <v>11</v>
       </c>
-      <c r="BN10" s="91"/>
-      <c r="BO10" s="91"/>
-      <c r="BP10" s="91"/>
-      <c r="BQ10" s="91"/>
-      <c r="BR10" s="91"/>
-      <c r="BS10" s="92"/>
-      <c r="BT10" s="90">
+      <c r="BN10" s="83"/>
+      <c r="BO10" s="83"/>
+      <c r="BP10" s="83"/>
+      <c r="BQ10" s="83"/>
+      <c r="BR10" s="83"/>
+      <c r="BS10" s="84"/>
+      <c r="BT10" s="82">
         <f>BT7</f>
         <v>12</v>
       </c>
-      <c r="BU10" s="91"/>
-      <c r="BV10" s="91"/>
-      <c r="BW10" s="91"/>
-      <c r="BX10" s="91"/>
-      <c r="BY10" s="91"/>
-      <c r="BZ10" s="92"/>
-      <c r="CA10" s="90">
+      <c r="BU10" s="83"/>
+      <c r="BV10" s="83"/>
+      <c r="BW10" s="83"/>
+      <c r="BX10" s="83"/>
+      <c r="BY10" s="83"/>
+      <c r="BZ10" s="84"/>
+      <c r="CA10" s="82">
         <f>CA7</f>
         <v>13</v>
       </c>
-      <c r="CB10" s="91"/>
-      <c r="CC10" s="91"/>
-      <c r="CD10" s="91"/>
-      <c r="CE10" s="91"/>
-      <c r="CF10" s="91"/>
-      <c r="CG10" s="92"/>
-      <c r="CH10" s="90">
+      <c r="CB10" s="83"/>
+      <c r="CC10" s="83"/>
+      <c r="CD10" s="83"/>
+      <c r="CE10" s="83"/>
+      <c r="CF10" s="83"/>
+      <c r="CG10" s="84"/>
+      <c r="CH10" s="82">
         <f>CH7</f>
         <v>14</v>
       </c>
-      <c r="CI10" s="91"/>
-      <c r="CJ10" s="91"/>
-      <c r="CK10" s="91"/>
-      <c r="CL10" s="91"/>
-      <c r="CM10" s="91"/>
-      <c r="CN10" s="92"/>
-      <c r="CO10" s="90">
+      <c r="CI10" s="83"/>
+      <c r="CJ10" s="83"/>
+      <c r="CK10" s="83"/>
+      <c r="CL10" s="83"/>
+      <c r="CM10" s="83"/>
+      <c r="CN10" s="84"/>
+      <c r="CO10" s="82">
         <f>CO7</f>
         <v>15</v>
       </c>
-      <c r="CP10" s="91"/>
-      <c r="CQ10" s="91"/>
-      <c r="CR10" s="91"/>
-      <c r="CS10" s="91"/>
-      <c r="CT10" s="91"/>
-      <c r="CU10" s="92"/>
-      <c r="CV10" s="90">
+      <c r="CP10" s="83"/>
+      <c r="CQ10" s="83"/>
+      <c r="CR10" s="83"/>
+      <c r="CS10" s="83"/>
+      <c r="CT10" s="83"/>
+      <c r="CU10" s="84"/>
+      <c r="CV10" s="82">
         <f>CV7</f>
         <v>16</v>
       </c>
-      <c r="CW10" s="91"/>
-      <c r="CX10" s="91"/>
-      <c r="CY10" s="91"/>
-      <c r="CZ10" s="91"/>
-      <c r="DA10" s="91"/>
-      <c r="DB10" s="92"/>
-      <c r="DC10" s="90">
+      <c r="CW10" s="83"/>
+      <c r="CX10" s="83"/>
+      <c r="CY10" s="83"/>
+      <c r="CZ10" s="83"/>
+      <c r="DA10" s="83"/>
+      <c r="DB10" s="84"/>
+      <c r="DC10" s="82">
         <f>DC7</f>
         <v>17</v>
       </c>
-      <c r="DD10" s="91"/>
-      <c r="DE10" s="91"/>
-      <c r="DF10" s="91"/>
-      <c r="DG10" s="91"/>
-      <c r="DH10" s="91"/>
-      <c r="DI10" s="92"/>
-      <c r="DJ10" s="90">
+      <c r="DD10" s="83"/>
+      <c r="DE10" s="83"/>
+      <c r="DF10" s="83"/>
+      <c r="DG10" s="83"/>
+      <c r="DH10" s="83"/>
+      <c r="DI10" s="84"/>
+      <c r="DJ10" s="82">
         <f>DJ7</f>
         <v>18</v>
       </c>
-      <c r="DK10" s="91"/>
-      <c r="DL10" s="91"/>
-      <c r="DM10" s="91"/>
-      <c r="DN10" s="91"/>
-      <c r="DO10" s="91"/>
-      <c r="DP10" s="92"/>
-      <c r="DQ10" s="90">
+      <c r="DK10" s="83"/>
+      <c r="DL10" s="83"/>
+      <c r="DM10" s="83"/>
+      <c r="DN10" s="83"/>
+      <c r="DO10" s="83"/>
+      <c r="DP10" s="84"/>
+      <c r="DQ10" s="82">
         <f>DQ7</f>
         <v>19</v>
       </c>
-      <c r="DR10" s="91"/>
-      <c r="DS10" s="91"/>
-      <c r="DT10" s="91"/>
-      <c r="DU10" s="91"/>
-      <c r="DV10" s="91"/>
-      <c r="DW10" s="92"/>
-      <c r="DX10" s="90">
+      <c r="DR10" s="83"/>
+      <c r="DS10" s="83"/>
+      <c r="DT10" s="83"/>
+      <c r="DU10" s="83"/>
+      <c r="DV10" s="83"/>
+      <c r="DW10" s="84"/>
+      <c r="DX10" s="82">
         <f>DX7</f>
         <v>20</v>
       </c>
-      <c r="DY10" s="91"/>
-      <c r="DZ10" s="91"/>
-      <c r="EA10" s="91"/>
-      <c r="EB10" s="91"/>
-      <c r="EC10" s="91"/>
-      <c r="ED10" s="92"/>
-      <c r="EE10" s="90">
+      <c r="DY10" s="83"/>
+      <c r="DZ10" s="83"/>
+      <c r="EA10" s="83"/>
+      <c r="EB10" s="83"/>
+      <c r="EC10" s="83"/>
+      <c r="ED10" s="84"/>
+      <c r="EE10" s="82">
         <f>EE7</f>
         <v>21</v>
       </c>
-      <c r="EF10" s="91"/>
-      <c r="EG10" s="91"/>
-      <c r="EH10" s="91"/>
-      <c r="EI10" s="91"/>
-      <c r="EJ10" s="91"/>
-      <c r="EK10" s="92"/>
-      <c r="EL10" s="90">
+      <c r="EF10" s="83"/>
+      <c r="EG10" s="83"/>
+      <c r="EH10" s="83"/>
+      <c r="EI10" s="83"/>
+      <c r="EJ10" s="83"/>
+      <c r="EK10" s="84"/>
+      <c r="EL10" s="82">
         <f>EL7</f>
         <v>22</v>
       </c>
-      <c r="EM10" s="91"/>
-      <c r="EN10" s="91"/>
-      <c r="EO10" s="91"/>
-      <c r="EP10" s="91"/>
-      <c r="EQ10" s="91"/>
-      <c r="ER10" s="92"/>
-      <c r="ES10" s="90">
+      <c r="EM10" s="83"/>
+      <c r="EN10" s="83"/>
+      <c r="EO10" s="83"/>
+      <c r="EP10" s="83"/>
+      <c r="EQ10" s="83"/>
+      <c r="ER10" s="84"/>
+      <c r="ES10" s="82">
         <f>ES7</f>
         <v>23</v>
       </c>
-      <c r="ET10" s="91"/>
-      <c r="EU10" s="91"/>
-      <c r="EV10" s="91"/>
-      <c r="EW10" s="91"/>
-      <c r="EX10" s="91"/>
-      <c r="EY10" s="92"/>
-      <c r="EZ10" s="90">
+      <c r="ET10" s="83"/>
+      <c r="EU10" s="83"/>
+      <c r="EV10" s="83"/>
+      <c r="EW10" s="83"/>
+      <c r="EX10" s="83"/>
+      <c r="EY10" s="84"/>
+      <c r="EZ10" s="82">
         <f>EZ7</f>
         <v>24</v>
       </c>
-      <c r="FA10" s="91"/>
-      <c r="FB10" s="91"/>
-      <c r="FC10" s="91"/>
-      <c r="FD10" s="91"/>
-      <c r="FE10" s="91"/>
-      <c r="FF10" s="92"/>
-      <c r="FG10" s="90">
+      <c r="FA10" s="83"/>
+      <c r="FB10" s="83"/>
+      <c r="FC10" s="83"/>
+      <c r="FD10" s="83"/>
+      <c r="FE10" s="83"/>
+      <c r="FF10" s="84"/>
+      <c r="FG10" s="82">
         <f>FG7</f>
         <v>25</v>
       </c>
-      <c r="FH10" s="91"/>
-      <c r="FI10" s="91"/>
-      <c r="FJ10" s="91"/>
-      <c r="FK10" s="91"/>
-      <c r="FL10" s="91"/>
-      <c r="FM10" s="92"/>
-      <c r="FN10" s="90">
+      <c r="FH10" s="83"/>
+      <c r="FI10" s="83"/>
+      <c r="FJ10" s="83"/>
+      <c r="FK10" s="83"/>
+      <c r="FL10" s="83"/>
+      <c r="FM10" s="84"/>
+      <c r="FN10" s="82">
         <f>FN7</f>
         <v>26</v>
       </c>
-      <c r="FO10" s="91"/>
-      <c r="FP10" s="91"/>
-      <c r="FQ10" s="91"/>
-      <c r="FR10" s="91"/>
-      <c r="FS10" s="91"/>
-      <c r="FT10" s="92"/>
-      <c r="FU10" s="90">
+      <c r="FO10" s="83"/>
+      <c r="FP10" s="83"/>
+      <c r="FQ10" s="83"/>
+      <c r="FR10" s="83"/>
+      <c r="FS10" s="83"/>
+      <c r="FT10" s="84"/>
+      <c r="FU10" s="82">
         <f>FU7</f>
         <v>27</v>
       </c>
-      <c r="FV10" s="91"/>
-      <c r="FW10" s="91"/>
-      <c r="FX10" s="91"/>
-      <c r="FY10" s="91"/>
-      <c r="FZ10" s="91"/>
-      <c r="GA10" s="92"/>
-      <c r="GB10" s="90">
+      <c r="FV10" s="83"/>
+      <c r="FW10" s="83"/>
+      <c r="FX10" s="83"/>
+      <c r="FY10" s="83"/>
+      <c r="FZ10" s="83"/>
+      <c r="GA10" s="84"/>
+      <c r="GB10" s="82">
         <f>GB7</f>
         <v>28</v>
       </c>
-      <c r="GC10" s="91"/>
-      <c r="GD10" s="91"/>
-      <c r="GE10" s="91"/>
-      <c r="GF10" s="91"/>
-      <c r="GG10" s="91"/>
-      <c r="GH10" s="92"/>
-      <c r="GI10" s="90">
+      <c r="GC10" s="83"/>
+      <c r="GD10" s="83"/>
+      <c r="GE10" s="83"/>
+      <c r="GF10" s="83"/>
+      <c r="GG10" s="83"/>
+      <c r="GH10" s="84"/>
+      <c r="GI10" s="82">
         <f>GI7</f>
         <v>29</v>
       </c>
-      <c r="GJ10" s="91"/>
-      <c r="GK10" s="91"/>
-      <c r="GL10" s="91"/>
-      <c r="GM10" s="91"/>
-      <c r="GN10" s="91"/>
-      <c r="GO10" s="92"/>
-      <c r="GP10" s="90">
+      <c r="GJ10" s="83"/>
+      <c r="GK10" s="83"/>
+      <c r="GL10" s="83"/>
+      <c r="GM10" s="83"/>
+      <c r="GN10" s="83"/>
+      <c r="GO10" s="84"/>
+      <c r="GP10" s="82">
         <f>GP7</f>
         <v>30</v>
       </c>
-      <c r="GQ10" s="91"/>
-      <c r="GR10" s="91"/>
-      <c r="GS10" s="91"/>
-      <c r="GT10" s="91"/>
-      <c r="GU10" s="91"/>
-      <c r="GV10" s="92"/>
-      <c r="GW10" s="90">
+      <c r="GQ10" s="83"/>
+      <c r="GR10" s="83"/>
+      <c r="GS10" s="83"/>
+      <c r="GT10" s="83"/>
+      <c r="GU10" s="83"/>
+      <c r="GV10" s="84"/>
+      <c r="GW10" s="82">
         <f>GW7</f>
         <v>31</v>
       </c>
-      <c r="GX10" s="91"/>
-      <c r="GY10" s="91"/>
-      <c r="GZ10" s="91"/>
-      <c r="HA10" s="91"/>
-      <c r="HB10" s="91"/>
-      <c r="HC10" s="92"/>
-      <c r="HD10" s="90">
+      <c r="GX10" s="83"/>
+      <c r="GY10" s="83"/>
+      <c r="GZ10" s="83"/>
+      <c r="HA10" s="83"/>
+      <c r="HB10" s="83"/>
+      <c r="HC10" s="84"/>
+      <c r="HD10" s="82">
         <f>HD7</f>
         <v>32</v>
       </c>
-      <c r="HE10" s="91"/>
-      <c r="HF10" s="91"/>
-      <c r="HG10" s="91"/>
-      <c r="HH10" s="91"/>
-      <c r="HI10" s="91"/>
-      <c r="HJ10" s="92"/>
-      <c r="HK10" s="90">
+      <c r="HE10" s="83"/>
+      <c r="HF10" s="83"/>
+      <c r="HG10" s="83"/>
+      <c r="HH10" s="83"/>
+      <c r="HI10" s="83"/>
+      <c r="HJ10" s="84"/>
+      <c r="HK10" s="82">
         <f>HK7</f>
         <v>33</v>
       </c>
-      <c r="HL10" s="91"/>
-      <c r="HM10" s="91"/>
-      <c r="HN10" s="91"/>
-      <c r="HO10" s="91"/>
-      <c r="HP10" s="91"/>
-      <c r="HQ10" s="92"/>
-      <c r="HR10" s="90">
+      <c r="HL10" s="83"/>
+      <c r="HM10" s="83"/>
+      <c r="HN10" s="83"/>
+      <c r="HO10" s="83"/>
+      <c r="HP10" s="83"/>
+      <c r="HQ10" s="84"/>
+      <c r="HR10" s="82">
         <f>HR7</f>
         <v>34</v>
       </c>
-      <c r="HS10" s="91"/>
-      <c r="HT10" s="91"/>
-      <c r="HU10" s="91"/>
-      <c r="HV10" s="91"/>
-      <c r="HW10" s="91"/>
-      <c r="HX10" s="92"/>
-      <c r="HY10" s="90">
+      <c r="HS10" s="83"/>
+      <c r="HT10" s="83"/>
+      <c r="HU10" s="83"/>
+      <c r="HV10" s="83"/>
+      <c r="HW10" s="83"/>
+      <c r="HX10" s="84"/>
+      <c r="HY10" s="82">
         <f>HY7</f>
         <v>35</v>
       </c>
-      <c r="HZ10" s="91"/>
-      <c r="IA10" s="91"/>
-      <c r="IB10" s="91"/>
-      <c r="IC10" s="91"/>
-      <c r="ID10" s="91"/>
-      <c r="IE10" s="92"/>
-      <c r="IF10" s="90">
+      <c r="HZ10" s="83"/>
+      <c r="IA10" s="83"/>
+      <c r="IB10" s="83"/>
+      <c r="IC10" s="83"/>
+      <c r="ID10" s="83"/>
+      <c r="IE10" s="84"/>
+      <c r="IF10" s="82">
         <f>IF7</f>
         <v>36</v>
       </c>
-      <c r="IG10" s="91"/>
-      <c r="IH10" s="91"/>
-      <c r="II10" s="91"/>
-      <c r="IJ10" s="91"/>
-      <c r="IK10" s="91"/>
-      <c r="IL10" s="92"/>
-      <c r="IM10" s="90">
+      <c r="IG10" s="83"/>
+      <c r="IH10" s="83"/>
+      <c r="II10" s="83"/>
+      <c r="IJ10" s="83"/>
+      <c r="IK10" s="83"/>
+      <c r="IL10" s="84"/>
+      <c r="IM10" s="82">
         <f>IM7</f>
         <v>37</v>
       </c>
-      <c r="IN10" s="91"/>
-      <c r="IO10" s="91"/>
-      <c r="IP10" s="91"/>
-      <c r="IQ10" s="91"/>
-      <c r="IR10" s="91"/>
-      <c r="IS10" s="92"/>
+      <c r="IN10" s="83"/>
+      <c r="IO10" s="83"/>
+      <c r="IP10" s="83"/>
+      <c r="IQ10" s="83"/>
+      <c r="IR10" s="83"/>
+      <c r="IS10" s="84"/>
     </row>
     <row r="11" spans="1:256" s="7" customFormat="1" ht="25.5" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="98"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
       <c r="F11" s="3" t="s">
         <v>4</v>
       </c>
@@ -6133,353 +6133,353 @@
       <c r="H11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="96"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
       <c r="O11" s="34"/>
-      <c r="P11" s="87">
+      <c r="P11" s="88">
         <f>YEAR(P6)</f>
         <v>2016</v>
       </c>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="102"/>
-      <c r="S11" s="102"/>
-      <c r="T11" s="102"/>
-      <c r="U11" s="102"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="87">
+      <c r="Q11" s="91"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="91"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="88">
         <f>YEAR(W6)</f>
         <v>2016</v>
       </c>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="88"/>
-      <c r="Z11" s="88"/>
-      <c r="AA11" s="88"/>
-      <c r="AB11" s="88"/>
-      <c r="AC11" s="89"/>
-      <c r="AD11" s="87">
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="89"/>
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="88">
         <f>YEAR(AD6)</f>
         <v>2016</v>
       </c>
-      <c r="AE11" s="88"/>
-      <c r="AF11" s="88"/>
-      <c r="AG11" s="88"/>
-      <c r="AH11" s="88"/>
-      <c r="AI11" s="88"/>
-      <c r="AJ11" s="89"/>
-      <c r="AK11" s="87">
+      <c r="AE11" s="89"/>
+      <c r="AF11" s="89"/>
+      <c r="AG11" s="89"/>
+      <c r="AH11" s="89"/>
+      <c r="AI11" s="89"/>
+      <c r="AJ11" s="90"/>
+      <c r="AK11" s="88">
         <f>YEAR(AK6)</f>
         <v>2016</v>
       </c>
-      <c r="AL11" s="88"/>
-      <c r="AM11" s="88"/>
-      <c r="AN11" s="88"/>
-      <c r="AO11" s="88"/>
-      <c r="AP11" s="88"/>
-      <c r="AQ11" s="89"/>
-      <c r="AR11" s="87">
+      <c r="AL11" s="89"/>
+      <c r="AM11" s="89"/>
+      <c r="AN11" s="89"/>
+      <c r="AO11" s="89"/>
+      <c r="AP11" s="89"/>
+      <c r="AQ11" s="90"/>
+      <c r="AR11" s="88">
         <f>YEAR(AR6)</f>
         <v>2016</v>
       </c>
-      <c r="AS11" s="88"/>
-      <c r="AT11" s="88"/>
-      <c r="AU11" s="88"/>
-      <c r="AV11" s="88"/>
-      <c r="AW11" s="88"/>
-      <c r="AX11" s="89"/>
-      <c r="AY11" s="87">
+      <c r="AS11" s="89"/>
+      <c r="AT11" s="89"/>
+      <c r="AU11" s="89"/>
+      <c r="AV11" s="89"/>
+      <c r="AW11" s="89"/>
+      <c r="AX11" s="90"/>
+      <c r="AY11" s="88">
         <f>YEAR(AY6)</f>
         <v>2016</v>
       </c>
-      <c r="AZ11" s="88"/>
-      <c r="BA11" s="88"/>
-      <c r="BB11" s="88"/>
-      <c r="BC11" s="88"/>
-      <c r="BD11" s="88"/>
-      <c r="BE11" s="89"/>
-      <c r="BF11" s="87">
+      <c r="AZ11" s="89"/>
+      <c r="BA11" s="89"/>
+      <c r="BB11" s="89"/>
+      <c r="BC11" s="89"/>
+      <c r="BD11" s="89"/>
+      <c r="BE11" s="90"/>
+      <c r="BF11" s="88">
         <f>YEAR(BF6)</f>
         <v>2016</v>
       </c>
-      <c r="BG11" s="88"/>
-      <c r="BH11" s="88"/>
-      <c r="BI11" s="88"/>
-      <c r="BJ11" s="88"/>
-      <c r="BK11" s="88"/>
-      <c r="BL11" s="89"/>
-      <c r="BM11" s="87">
+      <c r="BG11" s="89"/>
+      <c r="BH11" s="89"/>
+      <c r="BI11" s="89"/>
+      <c r="BJ11" s="89"/>
+      <c r="BK11" s="89"/>
+      <c r="BL11" s="90"/>
+      <c r="BM11" s="88">
         <f>YEAR(BM6)</f>
         <v>2016</v>
       </c>
-      <c r="BN11" s="88"/>
-      <c r="BO11" s="88"/>
-      <c r="BP11" s="88"/>
-      <c r="BQ11" s="88"/>
-      <c r="BR11" s="88"/>
-      <c r="BS11" s="89"/>
-      <c r="BT11" s="87">
+      <c r="BN11" s="89"/>
+      <c r="BO11" s="89"/>
+      <c r="BP11" s="89"/>
+      <c r="BQ11" s="89"/>
+      <c r="BR11" s="89"/>
+      <c r="BS11" s="90"/>
+      <c r="BT11" s="88">
         <f>YEAR(BT6)</f>
         <v>2016</v>
       </c>
-      <c r="BU11" s="88"/>
-      <c r="BV11" s="88"/>
-      <c r="BW11" s="88"/>
-      <c r="BX11" s="88"/>
-      <c r="BY11" s="88"/>
-      <c r="BZ11" s="89"/>
-      <c r="CA11" s="87">
+      <c r="BU11" s="89"/>
+      <c r="BV11" s="89"/>
+      <c r="BW11" s="89"/>
+      <c r="BX11" s="89"/>
+      <c r="BY11" s="89"/>
+      <c r="BZ11" s="90"/>
+      <c r="CA11" s="88">
         <f>YEAR(CA6)</f>
         <v>2016</v>
       </c>
-      <c r="CB11" s="88"/>
-      <c r="CC11" s="88"/>
-      <c r="CD11" s="88"/>
-      <c r="CE11" s="88"/>
-      <c r="CF11" s="88"/>
-      <c r="CG11" s="89"/>
-      <c r="CH11" s="87">
+      <c r="CB11" s="89"/>
+      <c r="CC11" s="89"/>
+      <c r="CD11" s="89"/>
+      <c r="CE11" s="89"/>
+      <c r="CF11" s="89"/>
+      <c r="CG11" s="90"/>
+      <c r="CH11" s="88">
         <f>YEAR(CH6)</f>
         <v>2016</v>
       </c>
-      <c r="CI11" s="88"/>
-      <c r="CJ11" s="88"/>
-      <c r="CK11" s="88"/>
-      <c r="CL11" s="88"/>
-      <c r="CM11" s="88"/>
-      <c r="CN11" s="89"/>
-      <c r="CO11" s="87">
+      <c r="CI11" s="89"/>
+      <c r="CJ11" s="89"/>
+      <c r="CK11" s="89"/>
+      <c r="CL11" s="89"/>
+      <c r="CM11" s="89"/>
+      <c r="CN11" s="90"/>
+      <c r="CO11" s="88">
         <f>YEAR(CO6)</f>
         <v>2016</v>
       </c>
-      <c r="CP11" s="88"/>
-      <c r="CQ11" s="88"/>
-      <c r="CR11" s="88"/>
-      <c r="CS11" s="88"/>
-      <c r="CT11" s="88"/>
-      <c r="CU11" s="89"/>
-      <c r="CV11" s="87">
+      <c r="CP11" s="89"/>
+      <c r="CQ11" s="89"/>
+      <c r="CR11" s="89"/>
+      <c r="CS11" s="89"/>
+      <c r="CT11" s="89"/>
+      <c r="CU11" s="90"/>
+      <c r="CV11" s="88">
         <f>YEAR(CV6)</f>
         <v>2016</v>
       </c>
-      <c r="CW11" s="88"/>
-      <c r="CX11" s="88"/>
-      <c r="CY11" s="88"/>
-      <c r="CZ11" s="88"/>
-      <c r="DA11" s="88"/>
-      <c r="DB11" s="89"/>
-      <c r="DC11" s="87">
+      <c r="CW11" s="89"/>
+      <c r="CX11" s="89"/>
+      <c r="CY11" s="89"/>
+      <c r="CZ11" s="89"/>
+      <c r="DA11" s="89"/>
+      <c r="DB11" s="90"/>
+      <c r="DC11" s="88">
         <f>YEAR(DC6)</f>
         <v>2016</v>
       </c>
-      <c r="DD11" s="88"/>
-      <c r="DE11" s="88"/>
-      <c r="DF11" s="88"/>
-      <c r="DG11" s="88"/>
-      <c r="DH11" s="88"/>
-      <c r="DI11" s="89"/>
-      <c r="DJ11" s="87">
+      <c r="DD11" s="89"/>
+      <c r="DE11" s="89"/>
+      <c r="DF11" s="89"/>
+      <c r="DG11" s="89"/>
+      <c r="DH11" s="89"/>
+      <c r="DI11" s="90"/>
+      <c r="DJ11" s="88">
         <f>YEAR(DJ6)</f>
         <v>2016</v>
       </c>
-      <c r="DK11" s="88"/>
-      <c r="DL11" s="88"/>
-      <c r="DM11" s="88"/>
-      <c r="DN11" s="88"/>
-      <c r="DO11" s="88"/>
-      <c r="DP11" s="89"/>
-      <c r="DQ11" s="87">
+      <c r="DK11" s="89"/>
+      <c r="DL11" s="89"/>
+      <c r="DM11" s="89"/>
+      <c r="DN11" s="89"/>
+      <c r="DO11" s="89"/>
+      <c r="DP11" s="90"/>
+      <c r="DQ11" s="88">
         <f>YEAR(DQ6)</f>
         <v>2016</v>
       </c>
-      <c r="DR11" s="88"/>
-      <c r="DS11" s="88"/>
-      <c r="DT11" s="88"/>
-      <c r="DU11" s="88"/>
-      <c r="DV11" s="88"/>
-      <c r="DW11" s="89"/>
-      <c r="DX11" s="87">
+      <c r="DR11" s="89"/>
+      <c r="DS11" s="89"/>
+      <c r="DT11" s="89"/>
+      <c r="DU11" s="89"/>
+      <c r="DV11" s="89"/>
+      <c r="DW11" s="90"/>
+      <c r="DX11" s="88">
         <f>YEAR(DX6)</f>
         <v>2016</v>
       </c>
-      <c r="DY11" s="88"/>
-      <c r="DZ11" s="88"/>
-      <c r="EA11" s="88"/>
-      <c r="EB11" s="88"/>
-      <c r="EC11" s="88"/>
-      <c r="ED11" s="89"/>
-      <c r="EE11" s="87">
+      <c r="DY11" s="89"/>
+      <c r="DZ11" s="89"/>
+      <c r="EA11" s="89"/>
+      <c r="EB11" s="89"/>
+      <c r="EC11" s="89"/>
+      <c r="ED11" s="90"/>
+      <c r="EE11" s="88">
         <f>YEAR(EE6)</f>
         <v>2016</v>
       </c>
-      <c r="EF11" s="88"/>
-      <c r="EG11" s="88"/>
-      <c r="EH11" s="88"/>
-      <c r="EI11" s="88"/>
-      <c r="EJ11" s="88"/>
-      <c r="EK11" s="89"/>
-      <c r="EL11" s="87">
+      <c r="EF11" s="89"/>
+      <c r="EG11" s="89"/>
+      <c r="EH11" s="89"/>
+      <c r="EI11" s="89"/>
+      <c r="EJ11" s="89"/>
+      <c r="EK11" s="90"/>
+      <c r="EL11" s="88">
         <f>YEAR(EL6)</f>
         <v>2016</v>
       </c>
-      <c r="EM11" s="88"/>
-      <c r="EN11" s="88"/>
-      <c r="EO11" s="88"/>
-      <c r="EP11" s="88"/>
-      <c r="EQ11" s="88"/>
-      <c r="ER11" s="89"/>
-      <c r="ES11" s="87">
+      <c r="EM11" s="89"/>
+      <c r="EN11" s="89"/>
+      <c r="EO11" s="89"/>
+      <c r="EP11" s="89"/>
+      <c r="EQ11" s="89"/>
+      <c r="ER11" s="90"/>
+      <c r="ES11" s="88">
         <f>YEAR(ES6)</f>
         <v>2016</v>
       </c>
-      <c r="ET11" s="88"/>
-      <c r="EU11" s="88"/>
-      <c r="EV11" s="88"/>
-      <c r="EW11" s="88"/>
-      <c r="EX11" s="88"/>
-      <c r="EY11" s="89"/>
-      <c r="EZ11" s="87">
+      <c r="ET11" s="89"/>
+      <c r="EU11" s="89"/>
+      <c r="EV11" s="89"/>
+      <c r="EW11" s="89"/>
+      <c r="EX11" s="89"/>
+      <c r="EY11" s="90"/>
+      <c r="EZ11" s="88">
         <f>YEAR(EZ6)</f>
         <v>2016</v>
       </c>
-      <c r="FA11" s="88"/>
-      <c r="FB11" s="88"/>
-      <c r="FC11" s="88"/>
-      <c r="FD11" s="88"/>
-      <c r="FE11" s="88"/>
-      <c r="FF11" s="89"/>
-      <c r="FG11" s="87">
+      <c r="FA11" s="89"/>
+      <c r="FB11" s="89"/>
+      <c r="FC11" s="89"/>
+      <c r="FD11" s="89"/>
+      <c r="FE11" s="89"/>
+      <c r="FF11" s="90"/>
+      <c r="FG11" s="88">
         <f>YEAR(FG6)</f>
         <v>2016</v>
       </c>
-      <c r="FH11" s="88"/>
-      <c r="FI11" s="88"/>
-      <c r="FJ11" s="88"/>
-      <c r="FK11" s="88"/>
-      <c r="FL11" s="88"/>
-      <c r="FM11" s="89"/>
-      <c r="FN11" s="87">
+      <c r="FH11" s="89"/>
+      <c r="FI11" s="89"/>
+      <c r="FJ11" s="89"/>
+      <c r="FK11" s="89"/>
+      <c r="FL11" s="89"/>
+      <c r="FM11" s="90"/>
+      <c r="FN11" s="88">
         <f>YEAR(FN6)</f>
         <v>2016</v>
       </c>
-      <c r="FO11" s="88"/>
-      <c r="FP11" s="88"/>
-      <c r="FQ11" s="88"/>
-      <c r="FR11" s="88"/>
-      <c r="FS11" s="88"/>
-      <c r="FT11" s="89"/>
-      <c r="FU11" s="87">
+      <c r="FO11" s="89"/>
+      <c r="FP11" s="89"/>
+      <c r="FQ11" s="89"/>
+      <c r="FR11" s="89"/>
+      <c r="FS11" s="89"/>
+      <c r="FT11" s="90"/>
+      <c r="FU11" s="88">
         <f>YEAR(FU6)</f>
         <v>2016</v>
       </c>
-      <c r="FV11" s="88"/>
-      <c r="FW11" s="88"/>
-      <c r="FX11" s="88"/>
-      <c r="FY11" s="88"/>
-      <c r="FZ11" s="88"/>
-      <c r="GA11" s="89"/>
-      <c r="GB11" s="87">
+      <c r="FV11" s="89"/>
+      <c r="FW11" s="89"/>
+      <c r="FX11" s="89"/>
+      <c r="FY11" s="89"/>
+      <c r="FZ11" s="89"/>
+      <c r="GA11" s="90"/>
+      <c r="GB11" s="88">
         <f>YEAR(GB6)</f>
         <v>2016</v>
       </c>
-      <c r="GC11" s="88"/>
-      <c r="GD11" s="88"/>
-      <c r="GE11" s="88"/>
-      <c r="GF11" s="88"/>
-      <c r="GG11" s="88"/>
-      <c r="GH11" s="89"/>
-      <c r="GI11" s="87">
+      <c r="GC11" s="89"/>
+      <c r="GD11" s="89"/>
+      <c r="GE11" s="89"/>
+      <c r="GF11" s="89"/>
+      <c r="GG11" s="89"/>
+      <c r="GH11" s="90"/>
+      <c r="GI11" s="88">
         <f>YEAR(GI6)</f>
         <v>2016</v>
       </c>
-      <c r="GJ11" s="88"/>
-      <c r="GK11" s="88"/>
-      <c r="GL11" s="88"/>
-      <c r="GM11" s="88"/>
-      <c r="GN11" s="88"/>
-      <c r="GO11" s="89"/>
-      <c r="GP11" s="87">
+      <c r="GJ11" s="89"/>
+      <c r="GK11" s="89"/>
+      <c r="GL11" s="89"/>
+      <c r="GM11" s="89"/>
+      <c r="GN11" s="89"/>
+      <c r="GO11" s="90"/>
+      <c r="GP11" s="88">
         <f>YEAR(GP6)</f>
         <v>2016</v>
       </c>
-      <c r="GQ11" s="88"/>
-      <c r="GR11" s="88"/>
-      <c r="GS11" s="88"/>
-      <c r="GT11" s="88"/>
-      <c r="GU11" s="88"/>
-      <c r="GV11" s="89"/>
-      <c r="GW11" s="87">
+      <c r="GQ11" s="89"/>
+      <c r="GR11" s="89"/>
+      <c r="GS11" s="89"/>
+      <c r="GT11" s="89"/>
+      <c r="GU11" s="89"/>
+      <c r="GV11" s="90"/>
+      <c r="GW11" s="88">
         <f>YEAR(GW6)</f>
         <v>2016</v>
       </c>
-      <c r="GX11" s="88"/>
-      <c r="GY11" s="88"/>
-      <c r="GZ11" s="88"/>
-      <c r="HA11" s="88"/>
-      <c r="HB11" s="88"/>
-      <c r="HC11" s="89"/>
-      <c r="HD11" s="87">
+      <c r="GX11" s="89"/>
+      <c r="GY11" s="89"/>
+      <c r="GZ11" s="89"/>
+      <c r="HA11" s="89"/>
+      <c r="HB11" s="89"/>
+      <c r="HC11" s="90"/>
+      <c r="HD11" s="88">
         <f>YEAR(HD6)</f>
         <v>2016</v>
       </c>
-      <c r="HE11" s="88"/>
-      <c r="HF11" s="88"/>
-      <c r="HG11" s="88"/>
-      <c r="HH11" s="88"/>
-      <c r="HI11" s="88"/>
-      <c r="HJ11" s="89"/>
-      <c r="HK11" s="87">
+      <c r="HE11" s="89"/>
+      <c r="HF11" s="89"/>
+      <c r="HG11" s="89"/>
+      <c r="HH11" s="89"/>
+      <c r="HI11" s="89"/>
+      <c r="HJ11" s="90"/>
+      <c r="HK11" s="88">
         <f>YEAR(HK6)</f>
         <v>2016</v>
       </c>
-      <c r="HL11" s="88"/>
-      <c r="HM11" s="88"/>
-      <c r="HN11" s="88"/>
-      <c r="HO11" s="88"/>
-      <c r="HP11" s="88"/>
-      <c r="HQ11" s="89"/>
-      <c r="HR11" s="87">
+      <c r="HL11" s="89"/>
+      <c r="HM11" s="89"/>
+      <c r="HN11" s="89"/>
+      <c r="HO11" s="89"/>
+      <c r="HP11" s="89"/>
+      <c r="HQ11" s="90"/>
+      <c r="HR11" s="88">
         <f>YEAR(HR6)</f>
         <v>2016</v>
       </c>
-      <c r="HS11" s="88"/>
-      <c r="HT11" s="88"/>
-      <c r="HU11" s="88"/>
-      <c r="HV11" s="88"/>
-      <c r="HW11" s="88"/>
-      <c r="HX11" s="89"/>
-      <c r="HY11" s="87">
+      <c r="HS11" s="89"/>
+      <c r="HT11" s="89"/>
+      <c r="HU11" s="89"/>
+      <c r="HV11" s="89"/>
+      <c r="HW11" s="89"/>
+      <c r="HX11" s="90"/>
+      <c r="HY11" s="88">
         <f>YEAR(HY6)</f>
         <v>2016</v>
       </c>
-      <c r="HZ11" s="88"/>
-      <c r="IA11" s="88"/>
-      <c r="IB11" s="88"/>
-      <c r="IC11" s="88"/>
-      <c r="ID11" s="88"/>
-      <c r="IE11" s="89"/>
-      <c r="IF11" s="87">
+      <c r="HZ11" s="89"/>
+      <c r="IA11" s="89"/>
+      <c r="IB11" s="89"/>
+      <c r="IC11" s="89"/>
+      <c r="ID11" s="89"/>
+      <c r="IE11" s="90"/>
+      <c r="IF11" s="88">
         <f>YEAR(IF6)</f>
         <v>2016</v>
       </c>
-      <c r="IG11" s="88"/>
-      <c r="IH11" s="88"/>
-      <c r="II11" s="88"/>
-      <c r="IJ11" s="88"/>
-      <c r="IK11" s="88"/>
-      <c r="IL11" s="89"/>
-      <c r="IM11" s="87">
+      <c r="IG11" s="89"/>
+      <c r="IH11" s="89"/>
+      <c r="II11" s="89"/>
+      <c r="IJ11" s="89"/>
+      <c r="IK11" s="89"/>
+      <c r="IL11" s="90"/>
+      <c r="IM11" s="88">
         <f>YEAR(IM6)</f>
         <v>2016</v>
       </c>
-      <c r="IN11" s="88"/>
-      <c r="IO11" s="88"/>
-      <c r="IP11" s="88"/>
-      <c r="IQ11" s="88"/>
-      <c r="IR11" s="88"/>
-      <c r="IS11" s="89"/>
+      <c r="IN11" s="89"/>
+      <c r="IO11" s="89"/>
+      <c r="IP11" s="89"/>
+      <c r="IQ11" s="89"/>
+      <c r="IR11" s="89"/>
+      <c r="IS11" s="90"/>
     </row>
     <row r="12" spans="1:256" s="23" customFormat="1" ht="12">
       <c r="A12" s="67">
@@ -7905,7 +7905,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="57"/>
       <c r="E17" s="57"/>
@@ -8188,7 +8188,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="57"/>
       <c r="E18" s="57"/>
@@ -8471,7 +8471,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="57"/>
       <c r="E19" s="57"/>
@@ -9037,7 +9037,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="57"/>
       <c r="E21" s="57"/>
@@ -9320,7 +9320,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="57"/>
       <c r="E22" s="57"/>
@@ -10171,7 +10171,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="57"/>
       <c r="E25" s="57"/>
@@ -10454,7 +10454,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" s="57"/>
       <c r="E26" s="57"/>
@@ -10735,7 +10735,7 @@
       </c>
       <c r="B27" s="68"/>
       <c r="C27" s="69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="70"/>
       <c r="E27" s="70"/>
@@ -11020,7 +11020,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
@@ -11869,7 +11869,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="57"/>
       <c r="E31" s="57"/>
@@ -13565,7 +13565,7 @@
       </c>
       <c r="B37" s="68"/>
       <c r="C37" s="69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D37" s="70"/>
       <c r="E37" s="70"/>
@@ -13850,7 +13850,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="81" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D38" s="57"/>
       <c r="E38" s="57"/>
@@ -14131,7 +14131,7 @@
       </c>
       <c r="B39" s="68"/>
       <c r="C39" s="69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39" s="70"/>
       <c r="E39" s="70"/>
@@ -16112,7 +16112,7 @@
       </c>
       <c r="B46" s="68"/>
       <c r="C46" s="69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D46" s="70"/>
       <c r="E46" s="70"/>
@@ -16397,7 +16397,7 @@
         <v>17</v>
       </c>
       <c r="C47" s="81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47" s="57"/>
       <c r="E47" s="57"/>
@@ -17246,7 +17246,7 @@
         <v>17</v>
       </c>
       <c r="C50" s="81" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D50" s="57"/>
       <c r="E50" s="57"/>
@@ -18656,6 +18656,97 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1"/>
   <autoFilter ref="A11:N15"/>
   <mergeCells count="115">
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="M5:M11"/>
+    <mergeCell ref="L5:L11"/>
+    <mergeCell ref="K5:K11"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="GI11:GO11"/>
+    <mergeCell ref="FG11:FM11"/>
+    <mergeCell ref="DC11:DI11"/>
+    <mergeCell ref="FU11:GA11"/>
+    <mergeCell ref="DX11:ED11"/>
+    <mergeCell ref="FN11:FT11"/>
+    <mergeCell ref="GB11:GH11"/>
+    <mergeCell ref="FN10:FT10"/>
+    <mergeCell ref="DQ11:DW11"/>
+    <mergeCell ref="BT11:BZ11"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="W11:AC11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="HK9:HQ9"/>
+    <mergeCell ref="HR9:HX9"/>
+    <mergeCell ref="IF9:IL9"/>
+    <mergeCell ref="HY9:IE9"/>
+    <mergeCell ref="FN9:FT9"/>
+    <mergeCell ref="AY11:BE11"/>
+    <mergeCell ref="BF9:BL9"/>
+    <mergeCell ref="CV11:DB11"/>
+    <mergeCell ref="BF11:BL11"/>
+    <mergeCell ref="BF10:BL10"/>
+    <mergeCell ref="BM10:BS10"/>
+    <mergeCell ref="BT10:BZ10"/>
+    <mergeCell ref="AY10:BE10"/>
+    <mergeCell ref="BM9:BS9"/>
+    <mergeCell ref="BM11:BS11"/>
+    <mergeCell ref="FG9:FM9"/>
+    <mergeCell ref="EL9:ER9"/>
+    <mergeCell ref="ES9:EY9"/>
+    <mergeCell ref="BT9:BZ9"/>
+    <mergeCell ref="DX9:ED9"/>
+    <mergeCell ref="DJ9:DP9"/>
+    <mergeCell ref="DC9:DI9"/>
+    <mergeCell ref="DQ9:DW9"/>
+    <mergeCell ref="GP9:GV9"/>
+    <mergeCell ref="HD9:HJ9"/>
+    <mergeCell ref="CO9:CU9"/>
+    <mergeCell ref="GI9:GO9"/>
+    <mergeCell ref="EE9:EK9"/>
+    <mergeCell ref="EZ9:FF9"/>
+    <mergeCell ref="FU9:GA9"/>
+    <mergeCell ref="GB9:GH9"/>
+    <mergeCell ref="DJ11:DP11"/>
+    <mergeCell ref="EE11:EK11"/>
+    <mergeCell ref="EL11:ER11"/>
+    <mergeCell ref="ES11:EY11"/>
+    <mergeCell ref="EZ11:FF11"/>
+    <mergeCell ref="EL10:ER10"/>
+    <mergeCell ref="GI10:GO10"/>
+    <mergeCell ref="GP10:GV10"/>
+    <mergeCell ref="GW10:HC10"/>
+    <mergeCell ref="HD10:HJ10"/>
+    <mergeCell ref="DQ10:DW10"/>
+    <mergeCell ref="DX10:ED10"/>
+    <mergeCell ref="CA9:CG9"/>
+    <mergeCell ref="CH10:CN10"/>
+    <mergeCell ref="CO10:CU10"/>
+    <mergeCell ref="AY9:BE9"/>
+    <mergeCell ref="CV9:DB9"/>
+    <mergeCell ref="CH9:CN9"/>
+    <mergeCell ref="CA11:CG11"/>
+    <mergeCell ref="IM11:IS11"/>
+    <mergeCell ref="GW11:HC11"/>
+    <mergeCell ref="HD11:HJ11"/>
+    <mergeCell ref="HK11:HQ11"/>
+    <mergeCell ref="HR11:HX11"/>
+    <mergeCell ref="HY11:IE11"/>
+    <mergeCell ref="CA10:CG10"/>
+    <mergeCell ref="IF11:IL11"/>
+    <mergeCell ref="EZ10:FF10"/>
+    <mergeCell ref="CH11:CN11"/>
+    <mergeCell ref="CO11:CU11"/>
+    <mergeCell ref="HY10:IE10"/>
+    <mergeCell ref="HR10:HX10"/>
+    <mergeCell ref="GP11:GV11"/>
+    <mergeCell ref="ES10:EY10"/>
+    <mergeCell ref="CV10:DB10"/>
+    <mergeCell ref="EE10:EK10"/>
     <mergeCell ref="HK10:HQ10"/>
     <mergeCell ref="FG10:FM10"/>
     <mergeCell ref="IM9:IS9"/>
@@ -18680,97 +18771,6 @@
     <mergeCell ref="DC10:DI10"/>
     <mergeCell ref="DJ10:DP10"/>
     <mergeCell ref="IF10:IL10"/>
-    <mergeCell ref="CA9:CG9"/>
-    <mergeCell ref="CH10:CN10"/>
-    <mergeCell ref="CO10:CU10"/>
-    <mergeCell ref="AY9:BE9"/>
-    <mergeCell ref="CV9:DB9"/>
-    <mergeCell ref="CH9:CN9"/>
-    <mergeCell ref="CA11:CG11"/>
-    <mergeCell ref="IM11:IS11"/>
-    <mergeCell ref="GW11:HC11"/>
-    <mergeCell ref="HD11:HJ11"/>
-    <mergeCell ref="HK11:HQ11"/>
-    <mergeCell ref="HR11:HX11"/>
-    <mergeCell ref="HY11:IE11"/>
-    <mergeCell ref="CA10:CG10"/>
-    <mergeCell ref="IF11:IL11"/>
-    <mergeCell ref="EZ10:FF10"/>
-    <mergeCell ref="CH11:CN11"/>
-    <mergeCell ref="CO11:CU11"/>
-    <mergeCell ref="HY10:IE10"/>
-    <mergeCell ref="HR10:HX10"/>
-    <mergeCell ref="GP11:GV11"/>
-    <mergeCell ref="ES10:EY10"/>
-    <mergeCell ref="CV10:DB10"/>
-    <mergeCell ref="EE10:EK10"/>
-    <mergeCell ref="HD9:HJ9"/>
-    <mergeCell ref="CO9:CU9"/>
-    <mergeCell ref="GI9:GO9"/>
-    <mergeCell ref="EE9:EK9"/>
-    <mergeCell ref="EZ9:FF9"/>
-    <mergeCell ref="FU9:GA9"/>
-    <mergeCell ref="GB9:GH9"/>
-    <mergeCell ref="DJ11:DP11"/>
-    <mergeCell ref="EE11:EK11"/>
-    <mergeCell ref="EL11:ER11"/>
-    <mergeCell ref="ES11:EY11"/>
-    <mergeCell ref="EZ11:FF11"/>
-    <mergeCell ref="EL10:ER10"/>
-    <mergeCell ref="GI10:GO10"/>
-    <mergeCell ref="GP10:GV10"/>
-    <mergeCell ref="GW10:HC10"/>
-    <mergeCell ref="HD10:HJ10"/>
-    <mergeCell ref="DQ10:DW10"/>
-    <mergeCell ref="DX10:ED10"/>
-    <mergeCell ref="HK9:HQ9"/>
-    <mergeCell ref="HR9:HX9"/>
-    <mergeCell ref="IF9:IL9"/>
-    <mergeCell ref="HY9:IE9"/>
-    <mergeCell ref="FN9:FT9"/>
-    <mergeCell ref="AY11:BE11"/>
-    <mergeCell ref="BF9:BL9"/>
-    <mergeCell ref="CV11:DB11"/>
-    <mergeCell ref="BF11:BL11"/>
-    <mergeCell ref="BF10:BL10"/>
-    <mergeCell ref="BM10:BS10"/>
-    <mergeCell ref="BT10:BZ10"/>
-    <mergeCell ref="AY10:BE10"/>
-    <mergeCell ref="BM9:BS9"/>
-    <mergeCell ref="BM11:BS11"/>
-    <mergeCell ref="FG9:FM9"/>
-    <mergeCell ref="EL9:ER9"/>
-    <mergeCell ref="ES9:EY9"/>
-    <mergeCell ref="BT9:BZ9"/>
-    <mergeCell ref="DX9:ED9"/>
-    <mergeCell ref="DJ9:DP9"/>
-    <mergeCell ref="DC9:DI9"/>
-    <mergeCell ref="DQ9:DW9"/>
-    <mergeCell ref="GP9:GV9"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="M5:M11"/>
-    <mergeCell ref="L5:L11"/>
-    <mergeCell ref="K5:K11"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="GI11:GO11"/>
-    <mergeCell ref="FG11:FM11"/>
-    <mergeCell ref="DC11:DI11"/>
-    <mergeCell ref="FU11:GA11"/>
-    <mergeCell ref="DX11:ED11"/>
-    <mergeCell ref="FN11:FT11"/>
-    <mergeCell ref="GB11:GH11"/>
-    <mergeCell ref="FN10:FT10"/>
-    <mergeCell ref="DQ11:DW11"/>
-    <mergeCell ref="BT11:BZ11"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="W11:AC11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="N9:N11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B12:B13 B15">
